--- a/Train_station_list.xlsx
+++ b/Train_station_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAKROT'S PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAKROT'S PC\Downloads\VandeBharatWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FC443-F3CB-4E74-A1DC-A96E348DBA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4646FE-EA98-4683-AA79-97AC0B71E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67B7019F-555B-411D-964F-F7979B8B2A1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7505" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7533" uniqueCount="1556">
   <si>
     <t>Train Number</t>
   </si>
@@ -4687,6 +4687,21 @@
   </si>
   <si>
     <t>359 km</t>
+  </si>
+  <si>
+    <t>BAHL</t>
+  </si>
+  <si>
+    <t>SINA</t>
+  </si>
+  <si>
+    <t>Banihal</t>
+  </si>
+  <si>
+    <t>Srinagar</t>
+  </si>
+  <si>
+    <t>112 km</t>
   </si>
 </sst>
 </file>
@@ -4767,7 +4782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4776,8 +4791,11 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5092,10 +5110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472EB0CA-0983-43CC-B39F-995DE13DF2E6}">
-  <dimension ref="A1:M763"/>
+  <dimension ref="A1:M769"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A750" workbookViewId="0">
+      <selection activeCell="L769" sqref="L769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5152,7 +5170,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>2251</v>
       </c>
       <c r="B2" s="3">
@@ -5190,7 +5208,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="3">
         <v>2251</v>
       </c>
       <c r="B3" s="3">
@@ -5228,7 +5246,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="3">
         <v>2251</v>
       </c>
       <c r="B4" s="3">
@@ -5266,7 +5284,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>2251</v>
       </c>
       <c r="B5" s="3">
@@ -5304,7 +5322,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>2251</v>
       </c>
       <c r="B6" s="3">
@@ -5342,7 +5360,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>2301</v>
       </c>
       <c r="B7" s="3">
@@ -5380,7 +5398,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>2301</v>
       </c>
       <c r="B8" s="3">
@@ -5418,7 +5436,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>2301</v>
       </c>
       <c r="B9" s="3">
@@ -5456,7 +5474,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>2301</v>
       </c>
       <c r="B10" s="3">
@@ -5494,7 +5512,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>2301</v>
       </c>
       <c r="B11" s="3">
@@ -5532,7 +5550,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>2302</v>
       </c>
       <c r="B12" s="3">
@@ -5570,7 +5588,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="3">
         <v>2302</v>
       </c>
       <c r="B13" s="3">
@@ -5608,7 +5626,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="3">
         <v>2302</v>
       </c>
       <c r="B14" s="3">
@@ -5646,7 +5664,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="3">
         <v>2302</v>
       </c>
       <c r="B15" s="3">
@@ -5684,7 +5702,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="3">
         <v>2302</v>
       </c>
       <c r="B16" s="3">
@@ -5722,7 +5740,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="3">
         <v>2311</v>
       </c>
       <c r="B17" s="3">
@@ -5760,7 +5778,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="3">
         <v>2311</v>
       </c>
       <c r="B18" s="3">
@@ -5798,7 +5816,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>2311</v>
       </c>
       <c r="B19" s="3">
@@ -5836,7 +5854,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>2311</v>
       </c>
       <c r="B20" s="3">
@@ -5874,7 +5892,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>2311</v>
       </c>
       <c r="B21" s="3">
@@ -5912,7 +5930,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="3">
         <v>2311</v>
       </c>
       <c r="B22" s="3">
@@ -5950,7 +5968,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>2311</v>
       </c>
       <c r="B23" s="3">
@@ -5988,7 +6006,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>2311</v>
       </c>
       <c r="B24" s="3">
@@ -6026,7 +6044,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>2311</v>
       </c>
       <c r="B25" s="3">
@@ -6064,7 +6082,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="3">
         <v>2312</v>
       </c>
       <c r="B26" s="3">
@@ -6102,7 +6120,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>2312</v>
       </c>
       <c r="B27" s="3">
@@ -6140,7 +6158,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="3">
         <v>2312</v>
       </c>
       <c r="B28" s="3">
@@ -6178,7 +6196,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="3">
         <v>2312</v>
       </c>
       <c r="B29" s="3">
@@ -6216,7 +6234,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+      <c r="A30" s="3">
         <v>2312</v>
       </c>
       <c r="B30" s="3">
@@ -6254,7 +6272,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="8">
+      <c r="A31" s="3">
         <v>2312</v>
       </c>
       <c r="B31" s="3">
@@ -6292,7 +6310,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="A32" s="3">
         <v>2312</v>
       </c>
       <c r="B32" s="3">
@@ -6330,7 +6348,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="3">
         <v>2312</v>
       </c>
       <c r="B33" s="3">
@@ -6368,7 +6386,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="A34" s="3">
         <v>2312</v>
       </c>
       <c r="B34" s="3">
@@ -6406,7 +6424,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="3">
         <v>12461</v>
       </c>
       <c r="B35" s="3">
@@ -6444,7 +6462,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="8">
+      <c r="A36" s="3">
         <v>12461</v>
       </c>
       <c r="B36" s="3">
@@ -6482,7 +6500,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="8">
+      <c r="A37" s="3">
         <v>12461</v>
       </c>
       <c r="B37" s="3">
@@ -6520,7 +6538,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="8">
+      <c r="A38" s="3">
         <v>12461</v>
       </c>
       <c r="B38" s="3">
@@ -6558,7 +6576,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="8">
+      <c r="A39" s="3">
         <v>12461</v>
       </c>
       <c r="B39" s="3">
@@ -6596,7 +6614,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="8">
+      <c r="A40" s="3">
         <v>12461</v>
       </c>
       <c r="B40" s="3">
@@ -6634,7 +6652,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
+      <c r="A41" s="3">
         <v>12461</v>
       </c>
       <c r="B41" s="3">
@@ -6672,7 +6690,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="8">
+      <c r="A42" s="3">
         <v>12462</v>
       </c>
       <c r="B42" s="3">
@@ -6710,7 +6728,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="8">
+      <c r="A43" s="3">
         <v>12462</v>
       </c>
       <c r="B43" s="3">
@@ -6748,7 +6766,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="A44" s="3">
         <v>12462</v>
       </c>
       <c r="B44" s="3">
@@ -6786,7 +6804,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+      <c r="A45" s="3">
         <v>12462</v>
       </c>
       <c r="B45" s="3">
@@ -6824,7 +6842,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="A46" s="3">
         <v>12462</v>
       </c>
       <c r="B46" s="3">
@@ -6862,7 +6880,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="A47" s="3">
         <v>12462</v>
       </c>
       <c r="B47" s="3">
@@ -6900,7 +6918,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
+      <c r="A48" s="3">
         <v>12462</v>
       </c>
       <c r="B48" s="3">
@@ -6938,7 +6956,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+      <c r="A49" s="3">
         <v>20171</v>
       </c>
       <c r="B49" s="3">
@@ -6976,7 +6994,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
+      <c r="A50" s="3">
         <v>20171</v>
       </c>
       <c r="B50" s="3">
@@ -7014,7 +7032,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="8">
+      <c r="A51" s="3">
         <v>20171</v>
       </c>
       <c r="B51" s="3">
@@ -7052,7 +7070,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="8">
+      <c r="A52" s="3">
         <v>20171</v>
       </c>
       <c r="B52" s="3">
@@ -7090,7 +7108,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="8">
+      <c r="A53" s="3">
         <v>20171</v>
       </c>
       <c r="B53" s="3">
@@ -7128,7 +7146,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="8">
+      <c r="A54" s="3">
         <v>20172</v>
       </c>
       <c r="B54" s="3">
@@ -7166,7 +7184,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="8">
+      <c r="A55" s="3">
         <v>20172</v>
       </c>
       <c r="B55" s="3">
@@ -7204,7 +7222,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="8">
+      <c r="A56" s="3">
         <v>20172</v>
       </c>
       <c r="B56" s="3">
@@ -7242,7 +7260,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="8">
+      <c r="A57" s="3">
         <v>20172</v>
       </c>
       <c r="B57" s="3">
@@ -7280,7 +7298,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="A58" s="3">
         <v>20172</v>
       </c>
       <c r="B58" s="3">
@@ -7318,7 +7336,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="8">
+      <c r="A59" s="3">
         <v>20173</v>
       </c>
       <c r="B59" s="3">
@@ -7356,7 +7374,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
+      <c r="A60" s="3">
         <v>20173</v>
       </c>
       <c r="B60" s="3">
@@ -7394,7 +7412,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
+      <c r="A61" s="3">
         <v>20173</v>
       </c>
       <c r="B61" s="3">
@@ -7432,7 +7450,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
+      <c r="A62" s="3">
         <v>20173</v>
       </c>
       <c r="B62" s="3">
@@ -7470,7 +7488,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="3">
         <v>20173</v>
       </c>
       <c r="B63" s="3">
@@ -7508,7 +7526,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="3">
         <v>20173</v>
       </c>
       <c r="B64" s="3">
@@ -7546,7 +7564,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="8">
+      <c r="A65" s="3">
         <v>20173</v>
       </c>
       <c r="B65" s="3">
@@ -7584,7 +7602,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="8">
+      <c r="A66" s="3">
         <v>20173</v>
       </c>
       <c r="B66" s="3">
@@ -7622,7 +7640,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
+      <c r="A67" s="3">
         <v>20173</v>
       </c>
       <c r="B67" s="3">
@@ -7660,7 +7678,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="8">
+      <c r="A68" s="3">
         <v>20173</v>
       </c>
       <c r="B68" s="3">
@@ -7698,7 +7716,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="8">
+      <c r="A69" s="3">
         <v>20174</v>
       </c>
       <c r="B69" s="3">
@@ -7736,7 +7754,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="8">
+      <c r="A70" s="3">
         <v>20174</v>
       </c>
       <c r="B70" s="3">
@@ -7774,7 +7792,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="8">
+      <c r="A71" s="3">
         <v>20174</v>
       </c>
       <c r="B71" s="3">
@@ -7812,7 +7830,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
+      <c r="A72" s="3">
         <v>20174</v>
       </c>
       <c r="B72" s="3">
@@ -7850,7 +7868,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
+      <c r="A73" s="3">
         <v>20174</v>
       </c>
       <c r="B73" s="3">
@@ -7888,7 +7906,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
+      <c r="A74" s="3">
         <v>20174</v>
       </c>
       <c r="B74" s="3">
@@ -7926,7 +7944,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
+      <c r="A75" s="3">
         <v>20174</v>
       </c>
       <c r="B75" s="3">
@@ -7964,7 +7982,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
+      <c r="A76" s="3">
         <v>20174</v>
       </c>
       <c r="B76" s="3">
@@ -8002,7 +8020,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="A77" s="3">
         <v>20174</v>
       </c>
       <c r="B77" s="3">
@@ -8040,7 +8058,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
+      <c r="A78" s="3">
         <v>20174</v>
       </c>
       <c r="B78" s="3">
@@ -8078,7 +8096,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
+      <c r="A79" s="3">
         <v>20607</v>
       </c>
       <c r="B79" s="3">
@@ -8116,7 +8134,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="8">
+      <c r="A80" s="3">
         <v>20607</v>
       </c>
       <c r="B80" s="3">
@@ -8154,7 +8172,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
+      <c r="A81" s="3">
         <v>20607</v>
       </c>
       <c r="B81" s="3">
@@ -8192,7 +8210,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
+      <c r="A82" s="3">
         <v>20607</v>
       </c>
       <c r="B82" s="3">
@@ -8230,7 +8248,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
+      <c r="A83" s="3">
         <v>20608</v>
       </c>
       <c r="B83" s="3">
@@ -8268,7 +8286,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
+      <c r="A84" s="3">
         <v>20608</v>
       </c>
       <c r="B84" s="3">
@@ -8306,7 +8324,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
+      <c r="A85" s="3">
         <v>20608</v>
       </c>
       <c r="B85" s="3">
@@ -8344,7 +8362,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
+      <c r="A86" s="3">
         <v>20608</v>
       </c>
       <c r="B86" s="3">
@@ -8382,7 +8400,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
+      <c r="A87" s="3">
         <v>20633</v>
       </c>
       <c r="B87" s="3">
@@ -8420,7 +8438,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
+      <c r="A88" s="3">
         <v>20633</v>
       </c>
       <c r="B88" s="3">
@@ -8458,7 +8476,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="8">
+      <c r="A89" s="3">
         <v>20633</v>
       </c>
       <c r="B89" s="3">
@@ -8496,7 +8514,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+      <c r="A90" s="3">
         <v>20633</v>
       </c>
       <c r="B90" s="3">
@@ -8534,7 +8552,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="8">
+      <c r="A91" s="3">
         <v>20633</v>
       </c>
       <c r="B91" s="3">
@@ -8572,7 +8590,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="8">
+      <c r="A92" s="3">
         <v>20633</v>
       </c>
       <c r="B92" s="3">
@@ -8610,7 +8628,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="8">
+      <c r="A93" s="3">
         <v>20633</v>
       </c>
       <c r="B93" s="3">
@@ -8648,7 +8666,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="8">
+      <c r="A94" s="3">
         <v>20633</v>
       </c>
       <c r="B94" s="3">
@@ -8686,7 +8704,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="8">
+      <c r="A95" s="3">
         <v>20633</v>
       </c>
       <c r="B95" s="3">
@@ -8724,7 +8742,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="8">
+      <c r="A96" s="3">
         <v>20633</v>
       </c>
       <c r="B96" s="3">
@@ -8762,7 +8780,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="8">
+      <c r="A97" s="3">
         <v>20634</v>
       </c>
       <c r="B97" s="3">
@@ -8800,7 +8818,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="8">
+      <c r="A98" s="3">
         <v>20634</v>
       </c>
       <c r="B98" s="3">
@@ -8838,7 +8856,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="8">
+      <c r="A99" s="3">
         <v>20634</v>
       </c>
       <c r="B99" s="3">
@@ -8876,7 +8894,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="8">
+      <c r="A100" s="3">
         <v>20634</v>
       </c>
       <c r="B100" s="3">
@@ -8914,7 +8932,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
+      <c r="A101" s="3">
         <v>20634</v>
       </c>
       <c r="B101" s="3">
@@ -8952,7 +8970,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
+      <c r="A102" s="3">
         <v>20634</v>
       </c>
       <c r="B102" s="3">
@@ -8990,7 +9008,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+      <c r="A103" s="3">
         <v>20634</v>
       </c>
       <c r="B103" s="3">
@@ -9028,7 +9046,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
+      <c r="A104" s="3">
         <v>20634</v>
       </c>
       <c r="B104" s="3">
@@ -9066,7 +9084,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="8">
+      <c r="A105" s="3">
         <v>20634</v>
       </c>
       <c r="B105" s="3">
@@ -9104,7 +9122,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="8">
+      <c r="A106" s="3">
         <v>20634</v>
       </c>
       <c r="B106" s="3">
@@ -9142,7 +9160,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="8">
+      <c r="A107" s="3">
         <v>20641</v>
       </c>
       <c r="B107" s="3">
@@ -9180,7 +9198,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="8">
+      <c r="A108" s="3">
         <v>20641</v>
       </c>
       <c r="B108" s="3">
@@ -9218,7 +9236,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="8">
+      <c r="A109" s="3">
         <v>20641</v>
       </c>
       <c r="B109" s="3">
@@ -9256,7 +9274,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="8">
+      <c r="A110" s="3">
         <v>20641</v>
       </c>
       <c r="B110" s="3">
@@ -9294,7 +9312,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="8">
+      <c r="A111" s="3">
         <v>20641</v>
       </c>
       <c r="B111" s="3">
@@ -9332,7 +9350,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="8">
+      <c r="A112" s="3">
         <v>20641</v>
       </c>
       <c r="B112" s="3">
@@ -9370,7 +9388,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="8">
+      <c r="A113" s="3">
         <v>20641</v>
       </c>
       <c r="B113" s="3">
@@ -9408,7 +9426,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="8">
+      <c r="A114" s="3">
         <v>20642</v>
       </c>
       <c r="B114" s="3">
@@ -9446,7 +9464,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="8">
+      <c r="A115" s="3">
         <v>20642</v>
       </c>
       <c r="B115" s="3">
@@ -9484,7 +9502,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="8">
+      <c r="A116" s="3">
         <v>20642</v>
       </c>
       <c r="B116" s="3">
@@ -9522,7 +9540,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="8">
+      <c r="A117" s="3">
         <v>20642</v>
       </c>
       <c r="B117" s="3">
@@ -9560,7 +9578,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="8">
+      <c r="A118" s="3">
         <v>20642</v>
       </c>
       <c r="B118" s="3">
@@ -9598,7 +9616,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="8">
+      <c r="A119" s="3">
         <v>20642</v>
       </c>
       <c r="B119" s="3">
@@ -9636,7 +9654,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
+      <c r="A120" s="3">
         <v>20642</v>
       </c>
       <c r="B120" s="3">
@@ -9674,7 +9692,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="8">
+      <c r="A121" s="3">
         <v>20643</v>
       </c>
       <c r="B121" s="3">
@@ -9712,7 +9730,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="8">
+      <c r="A122" s="3">
         <v>20643</v>
       </c>
       <c r="B122" s="3">
@@ -9750,7 +9768,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="8">
+      <c r="A123" s="3">
         <v>20643</v>
       </c>
       <c r="B123" s="3">
@@ -9788,7 +9806,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="8">
+      <c r="A124" s="3">
         <v>20643</v>
       </c>
       <c r="B124" s="3">
@@ -9826,7 +9844,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="8">
+      <c r="A125" s="3">
         <v>20643</v>
       </c>
       <c r="B125" s="3">
@@ -9864,7 +9882,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="8">
+      <c r="A126" s="3">
         <v>20644</v>
       </c>
       <c r="B126" s="3">
@@ -9902,7 +9920,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="8">
+      <c r="A127" s="3">
         <v>20644</v>
       </c>
       <c r="B127" s="3">
@@ -9940,7 +9958,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="8">
+      <c r="A128" s="3">
         <v>20644</v>
       </c>
       <c r="B128" s="3">
@@ -9978,7 +9996,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="8">
+      <c r="A129" s="3">
         <v>20644</v>
       </c>
       <c r="B129" s="3">
@@ -10016,7 +10034,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="8">
+      <c r="A130" s="3">
         <v>20644</v>
       </c>
       <c r="B130" s="3">
@@ -10054,7 +10072,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" s="8">
+      <c r="A131" s="3">
         <v>20645</v>
       </c>
       <c r="B131" s="3">
@@ -10092,7 +10110,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="8">
+      <c r="A132" s="3">
         <v>20645</v>
       </c>
       <c r="B132" s="3">
@@ -10130,7 +10148,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="8">
+      <c r="A133" s="3">
         <v>20645</v>
       </c>
       <c r="B133" s="3">
@@ -10168,7 +10186,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="8">
+      <c r="A134" s="3">
         <v>20645</v>
       </c>
       <c r="B134" s="3">
@@ -10206,7 +10224,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="8">
+      <c r="A135" s="3">
         <v>20646</v>
       </c>
       <c r="B135" s="3">
@@ -10244,7 +10262,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="8">
+      <c r="A136" s="3">
         <v>20646</v>
       </c>
       <c r="B136" s="3">
@@ -10282,7 +10300,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="8">
+      <c r="A137" s="3">
         <v>20646</v>
       </c>
       <c r="B137" s="3">
@@ -10320,7 +10338,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="8">
+      <c r="A138" s="3">
         <v>20646</v>
       </c>
       <c r="B138" s="3">
@@ -10358,7 +10376,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="8">
+      <c r="A139" s="3">
         <v>20661</v>
       </c>
       <c r="B139" s="3">
@@ -10396,7 +10414,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="8">
+      <c r="A140" s="3">
         <v>20661</v>
       </c>
       <c r="B140" s="3">
@@ -10434,7 +10452,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="8">
+      <c r="A141" s="3">
         <v>20661</v>
       </c>
       <c r="B141" s="3">
@@ -10472,7 +10490,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="8">
+      <c r="A142" s="3">
         <v>20661</v>
       </c>
       <c r="B142" s="3">
@@ -10510,7 +10528,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="8">
+      <c r="A143" s="3">
         <v>20661</v>
       </c>
       <c r="B143" s="3">
@@ -10548,7 +10566,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="8">
+      <c r="A144" s="3">
         <v>20661</v>
       </c>
       <c r="B144" s="3">
@@ -10586,7 +10604,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="8">
+      <c r="A145" s="3">
         <v>20661</v>
       </c>
       <c r="B145" s="3">
@@ -10624,7 +10642,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="8">
+      <c r="A146" s="3">
         <v>20662</v>
       </c>
       <c r="B146" s="3">
@@ -10662,7 +10680,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="8">
+      <c r="A147" s="3">
         <v>20662</v>
       </c>
       <c r="B147" s="3">
@@ -10700,7 +10718,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="8">
+      <c r="A148" s="3">
         <v>20662</v>
       </c>
       <c r="B148" s="3">
@@ -10738,7 +10756,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="8">
+      <c r="A149" s="3">
         <v>20662</v>
       </c>
       <c r="B149" s="3">
@@ -10776,7 +10794,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="8">
+      <c r="A150" s="3">
         <v>20662</v>
       </c>
       <c r="B150" s="3">
@@ -10814,7 +10832,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="8">
+      <c r="A151" s="3">
         <v>20662</v>
       </c>
       <c r="B151" s="3">
@@ -10852,7 +10870,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="8">
+      <c r="A152" s="3">
         <v>20662</v>
       </c>
       <c r="B152" s="3">
@@ -10890,7 +10908,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A153" s="8">
+      <c r="A153" s="3">
         <v>20663</v>
       </c>
       <c r="B153" s="3">
@@ -10928,7 +10946,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="8">
+      <c r="A154" s="3">
         <v>20663</v>
       </c>
       <c r="B154" s="3">
@@ -10966,7 +10984,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A155" s="8">
+      <c r="A155" s="3">
         <v>20663</v>
       </c>
       <c r="B155" s="3">
@@ -11004,7 +11022,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="8">
+      <c r="A156" s="3">
         <v>20663</v>
       </c>
       <c r="B156" s="3">
@@ -11042,7 +11060,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A157" s="8">
+      <c r="A157" s="3">
         <v>20663</v>
       </c>
       <c r="B157" s="3">
@@ -11080,7 +11098,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A158" s="8">
+      <c r="A158" s="3">
         <v>20663</v>
       </c>
       <c r="B158" s="3">
@@ -11118,7 +11136,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="8">
+      <c r="A159" s="3">
         <v>20664</v>
       </c>
       <c r="B159" s="3">
@@ -11156,7 +11174,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="8">
+      <c r="A160" s="3">
         <v>20664</v>
       </c>
       <c r="B160" s="3">
@@ -11194,7 +11212,7 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="8">
+      <c r="A161" s="3">
         <v>20664</v>
       </c>
       <c r="B161" s="3">
@@ -11232,7 +11250,7 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="8">
+      <c r="A162" s="3">
         <v>20664</v>
       </c>
       <c r="B162" s="3">
@@ -11270,7 +11288,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="8">
+      <c r="A163" s="3">
         <v>20664</v>
       </c>
       <c r="B163" s="3">
@@ -11308,7 +11326,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="8">
+      <c r="A164" s="3">
         <v>20664</v>
       </c>
       <c r="B164" s="3">
@@ -11346,7 +11364,7 @@
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="8">
+      <c r="A165" s="3">
         <v>20665</v>
       </c>
       <c r="B165" s="3">
@@ -11384,7 +11402,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="8">
+      <c r="A166" s="3">
         <v>20665</v>
       </c>
       <c r="B166" s="3">
@@ -11422,7 +11440,7 @@
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="8">
+      <c r="A167" s="3">
         <v>20665</v>
       </c>
       <c r="B167" s="3">
@@ -11460,7 +11478,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="8">
+      <c r="A168" s="3">
         <v>20665</v>
       </c>
       <c r="B168" s="3">
@@ -11498,7 +11516,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="8">
+      <c r="A169" s="3">
         <v>20665</v>
       </c>
       <c r="B169" s="3">
@@ -11536,7 +11554,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="8">
+      <c r="A170" s="3">
         <v>20665</v>
       </c>
       <c r="B170" s="3">
@@ -11574,7 +11592,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="8">
+      <c r="A171" s="3">
         <v>20665</v>
       </c>
       <c r="B171" s="3">
@@ -11612,7 +11630,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="8">
+      <c r="A172" s="3">
         <v>20665</v>
       </c>
       <c r="B172" s="3">
@@ -11650,7 +11668,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="8">
+      <c r="A173" s="3">
         <v>20666</v>
       </c>
       <c r="B173" s="3">
@@ -11688,7 +11706,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="8">
+      <c r="A174" s="3">
         <v>20666</v>
       </c>
       <c r="B174" s="3">
@@ -11726,7 +11744,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="8">
+      <c r="A175" s="3">
         <v>20666</v>
       </c>
       <c r="B175" s="3">
@@ -11764,7 +11782,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A176" s="8">
+      <c r="A176" s="3">
         <v>20666</v>
       </c>
       <c r="B176" s="3">
@@ -11802,7 +11820,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A177" s="8">
+      <c r="A177" s="3">
         <v>20666</v>
       </c>
       <c r="B177" s="3">
@@ -11840,7 +11858,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A178" s="8">
+      <c r="A178" s="3">
         <v>20666</v>
       </c>
       <c r="B178" s="3">
@@ -11878,7 +11896,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A179" s="8">
+      <c r="A179" s="3">
         <v>20666</v>
       </c>
       <c r="B179" s="3">
@@ -11916,7 +11934,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A180" s="8">
+      <c r="A180" s="3">
         <v>20666</v>
       </c>
       <c r="B180" s="3">
@@ -11954,7 +11972,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" s="8">
+      <c r="A181" s="3">
         <v>20677</v>
       </c>
       <c r="B181" s="3">
@@ -11992,7 +12010,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" s="8">
+      <c r="A182" s="3">
         <v>20677</v>
       </c>
       <c r="B182" s="3">
@@ -12030,7 +12048,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A183" s="8">
+      <c r="A183" s="3">
         <v>20677</v>
       </c>
       <c r="B183" s="3">
@@ -12068,7 +12086,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A184" s="8">
+      <c r="A184" s="3">
         <v>20677</v>
       </c>
       <c r="B184" s="3">
@@ -12106,7 +12124,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A185" s="8">
+      <c r="A185" s="3">
         <v>20677</v>
       </c>
       <c r="B185" s="3">
@@ -12144,7 +12162,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A186" s="8">
+      <c r="A186" s="3">
         <v>20677</v>
       </c>
       <c r="B186" s="3">
@@ -12182,7 +12200,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" s="8">
+      <c r="A187" s="3">
         <v>20678</v>
       </c>
       <c r="B187" s="3">
@@ -12220,7 +12238,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A188" s="8">
+      <c r="A188" s="3">
         <v>20678</v>
       </c>
       <c r="B188" s="3">
@@ -12258,7 +12276,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A189" s="8">
+      <c r="A189" s="3">
         <v>20678</v>
       </c>
       <c r="B189" s="3">
@@ -12296,7 +12314,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" s="8">
+      <c r="A190" s="3">
         <v>20678</v>
       </c>
       <c r="B190" s="3">
@@ -12334,7 +12352,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" s="8">
+      <c r="A191" s="3">
         <v>20678</v>
       </c>
       <c r="B191" s="3">
@@ -12372,7 +12390,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" s="8">
+      <c r="A192" s="3">
         <v>20678</v>
       </c>
       <c r="B192" s="3">
@@ -12410,7 +12428,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A193" s="8">
+      <c r="A193" s="3">
         <v>20701</v>
       </c>
       <c r="B193" s="3">
@@ -12448,7 +12466,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A194" s="8">
+      <c r="A194" s="3">
         <v>20701</v>
       </c>
       <c r="B194" s="3">
@@ -12486,7 +12504,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A195" s="8">
+      <c r="A195" s="3">
         <v>20701</v>
       </c>
       <c r="B195" s="3">
@@ -12524,7 +12542,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A196" s="8">
+      <c r="A196" s="3">
         <v>20701</v>
       </c>
       <c r="B196" s="3">
@@ -12562,7 +12580,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A197" s="8">
+      <c r="A197" s="3">
         <v>20701</v>
       </c>
       <c r="B197" s="3">
@@ -12600,7 +12618,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A198" s="8">
+      <c r="A198" s="3">
         <v>20701</v>
       </c>
       <c r="B198" s="3">
@@ -12638,7 +12656,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A199" s="8">
+      <c r="A199" s="3">
         <v>20701</v>
       </c>
       <c r="B199" s="3">
@@ -12676,7 +12694,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A200" s="8">
+      <c r="A200" s="3">
         <v>20702</v>
       </c>
       <c r="B200" s="3">
@@ -12714,7 +12732,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="8">
+      <c r="A201" s="3">
         <v>20702</v>
       </c>
       <c r="B201" s="3">
@@ -12752,7 +12770,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="8">
+      <c r="A202" s="3">
         <v>20702</v>
       </c>
       <c r="B202" s="3">
@@ -12790,7 +12808,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="8">
+      <c r="A203" s="3">
         <v>20702</v>
       </c>
       <c r="B203" s="3">
@@ -12828,7 +12846,7 @@
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="8">
+      <c r="A204" s="3">
         <v>20702</v>
       </c>
       <c r="B204" s="3">
@@ -12866,7 +12884,7 @@
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A205" s="8">
+      <c r="A205" s="3">
         <v>20702</v>
       </c>
       <c r="B205" s="3">
@@ -12904,7 +12922,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A206" s="8">
+      <c r="A206" s="3">
         <v>20702</v>
       </c>
       <c r="B206" s="3">
@@ -12942,7 +12960,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A207" s="8">
+      <c r="A207" s="3">
         <v>20703</v>
       </c>
       <c r="B207" s="3">
@@ -12980,7 +12998,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="8">
+      <c r="A208" s="3">
         <v>20703</v>
       </c>
       <c r="B208" s="3">
@@ -13018,7 +13036,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="8">
+      <c r="A209" s="3">
         <v>20703</v>
       </c>
       <c r="B209" s="3">
@@ -13056,7 +13074,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="8">
+      <c r="A210" s="3">
         <v>20703</v>
       </c>
       <c r="B210" s="3">
@@ -13094,7 +13112,7 @@
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="8">
+      <c r="A211" s="3">
         <v>20703</v>
       </c>
       <c r="B211" s="3">
@@ -13132,7 +13150,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="8">
+      <c r="A212" s="3">
         <v>20703</v>
       </c>
       <c r="B212" s="3">
@@ -13170,7 +13188,7 @@
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="8">
+      <c r="A213" s="3">
         <v>20704</v>
       </c>
       <c r="B213" s="3">
@@ -13208,7 +13226,7 @@
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="8">
+      <c r="A214" s="3">
         <v>20704</v>
       </c>
       <c r="B214" s="3">
@@ -13246,7 +13264,7 @@
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="8">
+      <c r="A215" s="3">
         <v>20704</v>
       </c>
       <c r="B215" s="3">
@@ -13284,7 +13302,7 @@
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="8">
+      <c r="A216" s="3">
         <v>20704</v>
       </c>
       <c r="B216" s="3">
@@ -13322,7 +13340,7 @@
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="8">
+      <c r="A217" s="3">
         <v>20704</v>
       </c>
       <c r="B217" s="3">
@@ -13360,7 +13378,7 @@
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="8">
+      <c r="A218" s="3">
         <v>20704</v>
       </c>
       <c r="B218" s="3">
@@ -13398,7 +13416,7 @@
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="8">
+      <c r="A219" s="3">
         <v>20705</v>
       </c>
       <c r="B219" s="3">
@@ -13436,7 +13454,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="8">
+      <c r="A220" s="3">
         <v>20705</v>
       </c>
       <c r="B220" s="3">
@@ -13474,7 +13492,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="8">
+      <c r="A221" s="3">
         <v>20705</v>
       </c>
       <c r="B221" s="3">
@@ -13512,7 +13530,7 @@
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="8">
+      <c r="A222" s="3">
         <v>20705</v>
       </c>
       <c r="B222" s="3">
@@ -13550,7 +13568,7 @@
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="8">
+      <c r="A223" s="3">
         <v>20705</v>
       </c>
       <c r="B223" s="3">
@@ -13588,7 +13606,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="8">
+      <c r="A224" s="3">
         <v>20705</v>
       </c>
       <c r="B224" s="3">
@@ -13626,7 +13644,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A225" s="8">
+      <c r="A225" s="3">
         <v>20705</v>
       </c>
       <c r="B225" s="3">
@@ -13664,7 +13682,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A226" s="8">
+      <c r="A226" s="3">
         <v>20705</v>
       </c>
       <c r="B226" s="3">
@@ -13702,7 +13720,7 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A227" s="8">
+      <c r="A227" s="3">
         <v>20706</v>
       </c>
       <c r="B227" s="3">
@@ -13740,7 +13758,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A228" s="8">
+      <c r="A228" s="3">
         <v>20706</v>
       </c>
       <c r="B228" s="3">
@@ -13778,7 +13796,7 @@
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A229" s="8">
+      <c r="A229" s="3">
         <v>20706</v>
       </c>
       <c r="B229" s="3">
@@ -13816,7 +13834,7 @@
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A230" s="8">
+      <c r="A230" s="3">
         <v>20706</v>
       </c>
       <c r="B230" s="3">
@@ -13854,7 +13872,7 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A231" s="8">
+      <c r="A231" s="3">
         <v>20706</v>
       </c>
       <c r="B231" s="3">
@@ -13892,7 +13910,7 @@
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A232" s="8">
+      <c r="A232" s="3">
         <v>20706</v>
       </c>
       <c r="B232" s="3">
@@ -13930,7 +13948,7 @@
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A233" s="8">
+      <c r="A233" s="3">
         <v>20706</v>
       </c>
       <c r="B233" s="3">
@@ -13968,7 +13986,7 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A234" s="8">
+      <c r="A234" s="3">
         <v>20706</v>
       </c>
       <c r="B234" s="3">
@@ -14006,7 +14024,7 @@
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A235" s="8">
+      <c r="A235" s="3">
         <v>20707</v>
       </c>
       <c r="B235" s="3">
@@ -14044,7 +14062,7 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A236" s="8">
+      <c r="A236" s="3">
         <v>20707</v>
       </c>
       <c r="B236" s="3">
@@ -14082,7 +14100,7 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A237" s="8">
+      <c r="A237" s="3">
         <v>20707</v>
       </c>
       <c r="B237" s="3">
@@ -14120,7 +14138,7 @@
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A238" s="8">
+      <c r="A238" s="3">
         <v>20707</v>
       </c>
       <c r="B238" s="3">
@@ -14158,7 +14176,7 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A239" s="8">
+      <c r="A239" s="3">
         <v>20707</v>
       </c>
       <c r="B239" s="3">
@@ -14196,7 +14214,7 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A240" s="8">
+      <c r="A240" s="3">
         <v>20707</v>
       </c>
       <c r="B240" s="3">
@@ -14234,7 +14252,7 @@
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A241" s="8">
+      <c r="A241" s="3">
         <v>20707</v>
       </c>
       <c r="B241" s="3">
@@ -14272,7 +14290,7 @@
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A242" s="8">
+      <c r="A242" s="3">
         <v>20707</v>
       </c>
       <c r="B242" s="3">
@@ -14310,7 +14328,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A243" s="8">
+      <c r="A243" s="3">
         <v>20708</v>
       </c>
       <c r="B243" s="3">
@@ -14348,7 +14366,7 @@
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A244" s="8">
+      <c r="A244" s="3">
         <v>20708</v>
       </c>
       <c r="B244" s="3">
@@ -14386,7 +14404,7 @@
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A245" s="8">
+      <c r="A245" s="3">
         <v>20708</v>
       </c>
       <c r="B245" s="3">
@@ -14424,7 +14442,7 @@
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A246" s="8">
+      <c r="A246" s="3">
         <v>20708</v>
       </c>
       <c r="B246" s="3">
@@ -14462,7 +14480,7 @@
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A247" s="8">
+      <c r="A247" s="3">
         <v>20708</v>
       </c>
       <c r="B247" s="3">
@@ -14500,7 +14518,7 @@
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A248" s="8">
+      <c r="A248" s="3">
         <v>20708</v>
       </c>
       <c r="B248" s="3">
@@ -14538,7 +14556,7 @@
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A249" s="8">
+      <c r="A249" s="3">
         <v>20708</v>
       </c>
       <c r="B249" s="3">
@@ -14576,7 +14594,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A250" s="8">
+      <c r="A250" s="3">
         <v>20708</v>
       </c>
       <c r="B250" s="3">
@@ -14614,7 +14632,7 @@
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A251" s="8">
+      <c r="A251" s="3">
         <v>20825</v>
       </c>
       <c r="B251" s="3">
@@ -14652,7 +14670,7 @@
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A252" s="8">
+      <c r="A252" s="3">
         <v>20825</v>
       </c>
       <c r="B252" s="3">
@@ -14690,7 +14708,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A253" s="8">
+      <c r="A253" s="3">
         <v>20825</v>
       </c>
       <c r="B253" s="3">
@@ -14728,7 +14746,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="8">
+      <c r="A254" s="3">
         <v>20825</v>
       </c>
       <c r="B254" s="3">
@@ -14766,7 +14784,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A255" s="8">
+      <c r="A255" s="3">
         <v>20825</v>
       </c>
       <c r="B255" s="3">
@@ -14804,7 +14822,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A256" s="8">
+      <c r="A256" s="3">
         <v>20825</v>
       </c>
       <c r="B256" s="3">
@@ -14842,7 +14860,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A257" s="8">
+      <c r="A257" s="3">
         <v>20825</v>
       </c>
       <c r="B257" s="3">
@@ -14880,7 +14898,7 @@
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A258" s="8">
+      <c r="A258" s="3">
         <v>20833</v>
       </c>
       <c r="B258" s="3">
@@ -14918,7 +14936,7 @@
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A259" s="8">
+      <c r="A259" s="3">
         <v>20833</v>
       </c>
       <c r="B259" s="3">
@@ -14956,7 +14974,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A260" s="8">
+      <c r="A260" s="3">
         <v>20833</v>
       </c>
       <c r="B260" s="3">
@@ -14994,7 +15012,7 @@
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A261" s="8">
+      <c r="A261" s="3">
         <v>20833</v>
       </c>
       <c r="B261" s="3">
@@ -15032,7 +15050,7 @@
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A262" s="8">
+      <c r="A262" s="3">
         <v>20833</v>
       </c>
       <c r="B262" s="3">
@@ -15070,7 +15088,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A263" s="8">
+      <c r="A263" s="3">
         <v>20833</v>
       </c>
       <c r="B263" s="3">
@@ -15108,7 +15126,7 @@
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A264" s="8">
+      <c r="A264" s="3">
         <v>20833</v>
       </c>
       <c r="B264" s="3">
@@ -15146,7 +15164,7 @@
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A265" s="8">
+      <c r="A265" s="3">
         <v>20834</v>
       </c>
       <c r="B265" s="3">
@@ -15184,7 +15202,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A266" s="8">
+      <c r="A266" s="3">
         <v>20834</v>
       </c>
       <c r="B266" s="3">
@@ -15222,7 +15240,7 @@
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A267" s="8">
+      <c r="A267" s="3">
         <v>20834</v>
       </c>
       <c r="B267" s="3">
@@ -15260,7 +15278,7 @@
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A268" s="8">
+      <c r="A268" s="3">
         <v>20834</v>
       </c>
       <c r="B268" s="3">
@@ -15298,7 +15316,7 @@
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A269" s="8">
+      <c r="A269" s="3">
         <v>20834</v>
       </c>
       <c r="B269" s="3">
@@ -15336,7 +15354,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A270" s="8">
+      <c r="A270" s="3">
         <v>20834</v>
       </c>
       <c r="B270" s="3">
@@ -15374,7 +15392,7 @@
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A271" s="8">
+      <c r="A271" s="3">
         <v>20834</v>
       </c>
       <c r="B271" s="3">
@@ -15412,7 +15430,7 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="8">
+      <c r="A272" s="3">
         <v>20835</v>
       </c>
       <c r="B272" s="3">
@@ -15450,7 +15468,7 @@
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" s="8">
+      <c r="A273" s="3">
         <v>20835</v>
       </c>
       <c r="B273" s="3">
@@ -15488,7 +15506,7 @@
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" s="8">
+      <c r="A274" s="3">
         <v>20835</v>
       </c>
       <c r="B274" s="3">
@@ -15526,7 +15544,7 @@
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A275" s="8">
+      <c r="A275" s="3">
         <v>20835</v>
       </c>
       <c r="B275" s="3">
@@ -15564,7 +15582,7 @@
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A276" s="8">
+      <c r="A276" s="3">
         <v>20835</v>
       </c>
       <c r="B276" s="3">
@@ -15602,7 +15620,7 @@
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A277" s="8">
+      <c r="A277" s="3">
         <v>20835</v>
       </c>
       <c r="B277" s="3">
@@ -15640,7 +15658,7 @@
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A278" s="8">
+      <c r="A278" s="3">
         <v>20835</v>
       </c>
       <c r="B278" s="3">
@@ -15678,7 +15696,7 @@
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A279" s="8">
+      <c r="A279" s="3">
         <v>20835</v>
       </c>
       <c r="B279" s="3">
@@ -15716,7 +15734,7 @@
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" s="8">
+      <c r="A280" s="3">
         <v>20835</v>
       </c>
       <c r="B280" s="3">
@@ -15754,7 +15772,7 @@
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A281" s="8">
+      <c r="A281" s="3">
         <v>20835</v>
       </c>
       <c r="B281" s="3">
@@ -15792,7 +15810,7 @@
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A282" s="8">
+      <c r="A282" s="3">
         <v>20835</v>
       </c>
       <c r="B282" s="3">
@@ -15830,7 +15848,7 @@
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A283" s="8">
+      <c r="A283" s="3">
         <v>20836</v>
       </c>
       <c r="B283" s="3">
@@ -15868,7 +15886,7 @@
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A284" s="8">
+      <c r="A284" s="3">
         <v>20836</v>
       </c>
       <c r="B284" s="3">
@@ -15906,7 +15924,7 @@
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A285" s="8">
+      <c r="A285" s="3">
         <v>20836</v>
       </c>
       <c r="B285" s="3">
@@ -15944,7 +15962,7 @@
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A286" s="8">
+      <c r="A286" s="3">
         <v>20836</v>
       </c>
       <c r="B286" s="3">
@@ -15982,7 +16000,7 @@
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A287" s="8">
+      <c r="A287" s="3">
         <v>20836</v>
       </c>
       <c r="B287" s="3">
@@ -16020,7 +16038,7 @@
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A288" s="8">
+      <c r="A288" s="3">
         <v>20836</v>
       </c>
       <c r="B288" s="3">
@@ -16058,7 +16076,7 @@
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A289" s="8">
+      <c r="A289" s="3">
         <v>20836</v>
       </c>
       <c r="B289" s="3">
@@ -16096,7 +16114,7 @@
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A290" s="8">
+      <c r="A290" s="3">
         <v>20836</v>
       </c>
       <c r="B290" s="3">
@@ -16134,7 +16152,7 @@
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A291" s="8">
+      <c r="A291" s="3">
         <v>20836</v>
       </c>
       <c r="B291" s="3">
@@ -16172,7 +16190,7 @@
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A292" s="8">
+      <c r="A292" s="3">
         <v>20836</v>
       </c>
       <c r="B292" s="3">
@@ -16210,7 +16228,7 @@
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A293" s="8">
+      <c r="A293" s="3">
         <v>20836</v>
       </c>
       <c r="B293" s="3">
@@ -16248,7 +16266,7 @@
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A294" s="8">
+      <c r="A294" s="3">
         <v>20841</v>
       </c>
       <c r="B294" s="3">
@@ -16286,7 +16304,7 @@
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A295" s="8">
+      <c r="A295" s="3">
         <v>20841</v>
       </c>
       <c r="B295" s="3">
@@ -16324,7 +16342,7 @@
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A296" s="8">
+      <c r="A296" s="3">
         <v>20841</v>
       </c>
       <c r="B296" s="3">
@@ -16362,7 +16380,7 @@
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A297" s="8">
+      <c r="A297" s="3">
         <v>20841</v>
       </c>
       <c r="B297" s="3">
@@ -16400,7 +16418,7 @@
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A298" s="8">
+      <c r="A298" s="3">
         <v>20841</v>
       </c>
       <c r="B298" s="3">
@@ -16438,7 +16456,7 @@
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A299" s="8">
+      <c r="A299" s="3">
         <v>20841</v>
       </c>
       <c r="B299" s="3">
@@ -16476,7 +16494,7 @@
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A300" s="8">
+      <c r="A300" s="3">
         <v>20841</v>
       </c>
       <c r="B300" s="3">
@@ -16514,7 +16532,7 @@
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A301" s="8">
+      <c r="A301" s="3">
         <v>20841</v>
       </c>
       <c r="B301" s="3">
@@ -16552,7 +16570,7 @@
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A302" s="8">
+      <c r="A302" s="3">
         <v>20841</v>
       </c>
       <c r="B302" s="3">
@@ -16590,7 +16608,7 @@
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A303" s="8">
+      <c r="A303" s="3">
         <v>20842</v>
       </c>
       <c r="B303" s="3">
@@ -16628,7 +16646,7 @@
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A304" s="8">
+      <c r="A304" s="3">
         <v>20842</v>
       </c>
       <c r="B304" s="3">
@@ -16666,7 +16684,7 @@
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A305" s="8">
+      <c r="A305" s="3">
         <v>20842</v>
       </c>
       <c r="B305" s="3">
@@ -16704,7 +16722,7 @@
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A306" s="8">
+      <c r="A306" s="3">
         <v>20842</v>
       </c>
       <c r="B306" s="3">
@@ -16742,7 +16760,7 @@
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A307" s="8">
+      <c r="A307" s="3">
         <v>20842</v>
       </c>
       <c r="B307" s="3">
@@ -16780,7 +16798,7 @@
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A308" s="8">
+      <c r="A308" s="3">
         <v>20842</v>
       </c>
       <c r="B308" s="3">
@@ -16818,7 +16836,7 @@
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A309" s="8">
+      <c r="A309" s="3">
         <v>20842</v>
       </c>
       <c r="B309" s="3">
@@ -16856,7 +16874,7 @@
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A310" s="8">
+      <c r="A310" s="3">
         <v>20842</v>
       </c>
       <c r="B310" s="3">
@@ -16894,7 +16912,7 @@
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A311" s="8">
+      <c r="A311" s="3">
         <v>20842</v>
       </c>
       <c r="B311" s="3">
@@ -16932,7 +16950,7 @@
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A312" s="8">
+      <c r="A312" s="3">
         <v>20887</v>
       </c>
       <c r="B312" s="3">
@@ -16970,7 +16988,7 @@
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A313" s="8">
+      <c r="A313" s="3">
         <v>20887</v>
       </c>
       <c r="B313" s="3">
@@ -17008,7 +17026,7 @@
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A314" s="8">
+      <c r="A314" s="3">
         <v>20887</v>
       </c>
       <c r="B314" s="3">
@@ -17046,7 +17064,7 @@
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A315" s="8">
+      <c r="A315" s="3">
         <v>20887</v>
       </c>
       <c r="B315" s="3">
@@ -17084,7 +17102,7 @@
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A316" s="8">
+      <c r="A316" s="3">
         <v>20887</v>
       </c>
       <c r="B316" s="3">
@@ -17122,7 +17140,7 @@
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A317" s="8">
+      <c r="A317" s="3">
         <v>20887</v>
       </c>
       <c r="B317" s="3">
@@ -17160,7 +17178,7 @@
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A318" s="8">
+      <c r="A318" s="3">
         <v>20887</v>
       </c>
       <c r="B318" s="3">
@@ -17198,7 +17216,7 @@
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A319" s="8">
+      <c r="A319" s="3">
         <v>20887</v>
       </c>
       <c r="B319" s="3">
@@ -17236,7 +17254,7 @@
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A320" s="8">
+      <c r="A320" s="3">
         <v>20887</v>
       </c>
       <c r="B320" s="3">
@@ -17274,7 +17292,7 @@
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A321" s="8">
+      <c r="A321" s="3">
         <v>20888</v>
       </c>
       <c r="B321" s="3">
@@ -17312,7 +17330,7 @@
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A322" s="8">
+      <c r="A322" s="3">
         <v>20888</v>
       </c>
       <c r="B322" s="3">
@@ -17350,7 +17368,7 @@
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A323" s="8">
+      <c r="A323" s="3">
         <v>20888</v>
       </c>
       <c r="B323" s="3">
@@ -17388,7 +17406,7 @@
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A324" s="8">
+      <c r="A324" s="3">
         <v>20888</v>
       </c>
       <c r="B324" s="3">
@@ -17426,7 +17444,7 @@
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A325" s="8">
+      <c r="A325" s="3">
         <v>20888</v>
       </c>
       <c r="B325" s="3">
@@ -17464,7 +17482,7 @@
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A326" s="8">
+      <c r="A326" s="3">
         <v>20888</v>
       </c>
       <c r="B326" s="3">
@@ -17502,7 +17520,7 @@
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A327" s="8">
+      <c r="A327" s="3">
         <v>20888</v>
       </c>
       <c r="B327" s="3">
@@ -17540,7 +17558,7 @@
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A328" s="8">
+      <c r="A328" s="3">
         <v>20888</v>
       </c>
       <c r="B328" s="3">
@@ -17578,7 +17596,7 @@
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A329" s="8">
+      <c r="A329" s="3">
         <v>20888</v>
       </c>
       <c r="B329" s="3">
@@ -17616,7 +17634,7 @@
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A330" s="8">
+      <c r="A330" s="3">
         <v>20897</v>
       </c>
       <c r="B330" s="3">
@@ -17654,7 +17672,7 @@
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A331" s="8">
+      <c r="A331" s="3">
         <v>20897</v>
       </c>
       <c r="B331" s="3">
@@ -17692,7 +17710,7 @@
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A332" s="8">
+      <c r="A332" s="3">
         <v>20897</v>
       </c>
       <c r="B332" s="3">
@@ -17730,7 +17748,7 @@
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A333" s="8">
+      <c r="A333" s="3">
         <v>20897</v>
       </c>
       <c r="B333" s="3">
@@ -17768,7 +17786,7 @@
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A334" s="8">
+      <c r="A334" s="3">
         <v>20897</v>
       </c>
       <c r="B334" s="3">
@@ -17806,7 +17824,7 @@
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A335" s="8">
+      <c r="A335" s="3">
         <v>20897</v>
       </c>
       <c r="B335" s="3">
@@ -17844,7 +17862,7 @@
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A336" s="8">
+      <c r="A336" s="3">
         <v>20897</v>
       </c>
       <c r="B336" s="3">
@@ -17882,7 +17900,7 @@
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A337" s="8">
+      <c r="A337" s="3">
         <v>20897</v>
       </c>
       <c r="B337" s="3">
@@ -17920,7 +17938,7 @@
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A338" s="8">
+      <c r="A338" s="3">
         <v>20898</v>
       </c>
       <c r="B338" s="3">
@@ -17958,7 +17976,7 @@
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A339" s="8">
+      <c r="A339" s="3">
         <v>20898</v>
       </c>
       <c r="B339" s="3">
@@ -17996,7 +18014,7 @@
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A340" s="8">
+      <c r="A340" s="3">
         <v>20898</v>
       </c>
       <c r="B340" s="3">
@@ -18034,7 +18052,7 @@
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A341" s="8">
+      <c r="A341" s="3">
         <v>20898</v>
       </c>
       <c r="B341" s="3">
@@ -18072,7 +18090,7 @@
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A342" s="8">
+      <c r="A342" s="3">
         <v>20898</v>
       </c>
       <c r="B342" s="3">
@@ -18110,7 +18128,7 @@
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A343" s="8">
+      <c r="A343" s="3">
         <v>20898</v>
       </c>
       <c r="B343" s="3">
@@ -18148,7 +18166,7 @@
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A344" s="8">
+      <c r="A344" s="3">
         <v>20898</v>
       </c>
       <c r="B344" s="3">
@@ -18186,7 +18204,7 @@
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A345" s="8">
+      <c r="A345" s="3">
         <v>20898</v>
       </c>
       <c r="B345" s="3">
@@ -18224,7 +18242,7 @@
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A346" s="8">
+      <c r="A346" s="3">
         <v>20901</v>
       </c>
       <c r="B346" s="3">
@@ -18262,7 +18280,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A347" s="8">
+      <c r="A347" s="3">
         <v>20901</v>
       </c>
       <c r="B347" s="3">
@@ -18300,7 +18318,7 @@
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A348" s="8">
+      <c r="A348" s="3">
         <v>20901</v>
       </c>
       <c r="B348" s="3">
@@ -18338,7 +18356,7 @@
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A349" s="8">
+      <c r="A349" s="3">
         <v>20901</v>
       </c>
       <c r="B349" s="3">
@@ -18376,7 +18394,7 @@
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A350" s="8">
+      <c r="A350" s="3">
         <v>20901</v>
       </c>
       <c r="B350" s="3">
@@ -18414,7 +18432,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A351" s="8">
+      <c r="A351" s="3">
         <v>20901</v>
       </c>
       <c r="B351" s="3">
@@ -18452,7 +18470,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A352" s="8">
+      <c r="A352" s="3">
         <v>20901</v>
       </c>
       <c r="B352" s="3">
@@ -18490,7 +18508,7 @@
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A353" s="8">
+      <c r="A353" s="3">
         <v>20901</v>
       </c>
       <c r="B353" s="3">
@@ -18528,7 +18546,7 @@
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A354" s="8">
+      <c r="A354" s="3">
         <v>20902</v>
       </c>
       <c r="B354" s="3">
@@ -18566,7 +18584,7 @@
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A355" s="8">
+      <c r="A355" s="3">
         <v>20902</v>
       </c>
       <c r="B355" s="3">
@@ -18604,7 +18622,7 @@
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A356" s="8">
+      <c r="A356" s="3">
         <v>20902</v>
       </c>
       <c r="B356" s="3">
@@ -18642,7 +18660,7 @@
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A357" s="8">
+      <c r="A357" s="3">
         <v>20902</v>
       </c>
       <c r="B357" s="3">
@@ -18680,7 +18698,7 @@
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A358" s="8">
+      <c r="A358" s="3">
         <v>20902</v>
       </c>
       <c r="B358" s="3">
@@ -18718,7 +18736,7 @@
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A359" s="8">
+      <c r="A359" s="3">
         <v>20902</v>
       </c>
       <c r="B359" s="3">
@@ -18756,7 +18774,7 @@
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A360" s="8">
+      <c r="A360" s="3">
         <v>20902</v>
       </c>
       <c r="B360" s="3">
@@ -18794,7 +18812,7 @@
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A361" s="8">
+      <c r="A361" s="3">
         <v>20902</v>
       </c>
       <c r="B361" s="3">
@@ -18832,7 +18850,7 @@
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A362" s="8">
+      <c r="A362" s="3">
         <v>20911</v>
       </c>
       <c r="B362" s="3">
@@ -18870,7 +18888,7 @@
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A363" s="8">
+      <c r="A363" s="3">
         <v>20911</v>
       </c>
       <c r="B363" s="3">
@@ -18908,7 +18926,7 @@
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A364" s="8">
+      <c r="A364" s="3">
         <v>20911</v>
       </c>
       <c r="B364" s="3">
@@ -18946,7 +18964,7 @@
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A365" s="8">
+      <c r="A365" s="3">
         <v>20911</v>
       </c>
       <c r="B365" s="3">
@@ -18984,7 +19002,7 @@
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A366" s="8">
+      <c r="A366" s="3">
         <v>20911</v>
       </c>
       <c r="B366" s="3">
@@ -19022,7 +19040,7 @@
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A367" s="8">
+      <c r="A367" s="3">
         <v>20911</v>
       </c>
       <c r="B367" s="3">
@@ -19060,7 +19078,7 @@
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A368" s="8">
+      <c r="A368" s="3">
         <v>20911</v>
       </c>
       <c r="B368" s="3">
@@ -19098,7 +19116,7 @@
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A369" s="8">
+      <c r="A369" s="3">
         <v>20912</v>
       </c>
       <c r="B369" s="3">
@@ -19136,7 +19154,7 @@
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A370" s="8">
+      <c r="A370" s="3">
         <v>20912</v>
       </c>
       <c r="B370" s="3">
@@ -19174,7 +19192,7 @@
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A371" s="8">
+      <c r="A371" s="3">
         <v>20912</v>
       </c>
       <c r="B371" s="3">
@@ -19212,7 +19230,7 @@
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A372" s="8">
+      <c r="A372" s="3">
         <v>20912</v>
       </c>
       <c r="B372" s="3">
@@ -19250,7 +19268,7 @@
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A373" s="8">
+      <c r="A373" s="3">
         <v>20912</v>
       </c>
       <c r="B373" s="3">
@@ -19288,7 +19306,7 @@
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A374" s="8">
+      <c r="A374" s="3">
         <v>20912</v>
       </c>
       <c r="B374" s="3">
@@ -19326,7 +19344,7 @@
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A375" s="8">
+      <c r="A375" s="3">
         <v>20912</v>
       </c>
       <c r="B375" s="3">
@@ -19364,7 +19382,7 @@
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A376" s="8">
+      <c r="A376" s="3">
         <v>20977</v>
       </c>
       <c r="B376" s="3">
@@ -19402,7 +19420,7 @@
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A377" s="8">
+      <c r="A377" s="3">
         <v>20977</v>
       </c>
       <c r="B377" s="3">
@@ -19440,7 +19458,7 @@
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A378" s="8">
+      <c r="A378" s="3">
         <v>20977</v>
       </c>
       <c r="B378" s="3">
@@ -19478,7 +19496,7 @@
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A379" s="8">
+      <c r="A379" s="3">
         <v>20977</v>
       </c>
       <c r="B379" s="3">
@@ -19516,7 +19534,7 @@
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A380" s="8">
+      <c r="A380" s="3">
         <v>20977</v>
       </c>
       <c r="B380" s="3">
@@ -19554,7 +19572,7 @@
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A381" s="8">
+      <c r="A381" s="3">
         <v>20977</v>
       </c>
       <c r="B381" s="3">
@@ -19592,7 +19610,7 @@
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A382" s="8">
+      <c r="A382" s="3">
         <v>20977</v>
       </c>
       <c r="B382" s="3">
@@ -19630,7 +19648,7 @@
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A383" s="8">
+      <c r="A383" s="3">
         <v>20977</v>
       </c>
       <c r="B383" s="3">
@@ -19668,7 +19686,7 @@
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A384" s="8">
+      <c r="A384" s="3">
         <v>20977</v>
       </c>
       <c r="B384" s="3">
@@ -19706,7 +19724,7 @@
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A385" s="8">
+      <c r="A385" s="3">
         <v>20977</v>
       </c>
       <c r="B385" s="3">
@@ -19744,7 +19762,7 @@
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A386" s="8">
+      <c r="A386" s="3">
         <v>20978</v>
       </c>
       <c r="B386" s="3">
@@ -19782,7 +19800,7 @@
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A387" s="8">
+      <c r="A387" s="3">
         <v>20978</v>
       </c>
       <c r="B387" s="3">
@@ -19820,7 +19838,7 @@
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A388" s="8">
+      <c r="A388" s="3">
         <v>20978</v>
       </c>
       <c r="B388" s="3">
@@ -19858,7 +19876,7 @@
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A389" s="8">
+      <c r="A389" s="3">
         <v>20978</v>
       </c>
       <c r="B389" s="3">
@@ -19896,7 +19914,7 @@
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A390" s="8">
+      <c r="A390" s="3">
         <v>20978</v>
       </c>
       <c r="B390" s="3">
@@ -19934,7 +19952,7 @@
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A391" s="8">
+      <c r="A391" s="3">
         <v>20978</v>
       </c>
       <c r="B391" s="3">
@@ -19972,7 +19990,7 @@
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A392" s="8">
+      <c r="A392" s="3">
         <v>20978</v>
       </c>
       <c r="B392" s="3">
@@ -20010,7 +20028,7 @@
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A393" s="8">
+      <c r="A393" s="3">
         <v>20978</v>
       </c>
       <c r="B393" s="3">
@@ -20048,7 +20066,7 @@
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A394" s="8">
+      <c r="A394" s="3">
         <v>20978</v>
       </c>
       <c r="B394" s="3">
@@ -20086,7 +20104,7 @@
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A395" s="8">
+      <c r="A395" s="3">
         <v>20978</v>
       </c>
       <c r="B395" s="3">
@@ -20124,7 +20142,7 @@
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A396" s="8">
+      <c r="A396" s="3">
         <v>20979</v>
       </c>
       <c r="B396" s="3">
@@ -20162,7 +20180,7 @@
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A397" s="8">
+      <c r="A397" s="3">
         <v>20979</v>
       </c>
       <c r="B397" s="3">
@@ -20200,7 +20218,7 @@
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A398" s="8">
+      <c r="A398" s="3">
         <v>20979</v>
       </c>
       <c r="B398" s="3">
@@ -20238,7 +20256,7 @@
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A399" s="8">
+      <c r="A399" s="3">
         <v>20979</v>
       </c>
       <c r="B399" s="3">
@@ -20276,7 +20294,7 @@
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A400" s="8">
+      <c r="A400" s="3">
         <v>20979</v>
       </c>
       <c r="B400" s="3">
@@ -20314,7 +20332,7 @@
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A401" s="8">
+      <c r="A401" s="3">
         <v>20979</v>
       </c>
       <c r="B401" s="3">
@@ -20352,7 +20370,7 @@
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A402" s="8">
+      <c r="A402" s="3">
         <v>20979</v>
       </c>
       <c r="B402" s="3">
@@ -20390,7 +20408,7 @@
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A403" s="8">
+      <c r="A403" s="3">
         <v>20979</v>
       </c>
       <c r="B403" s="3">
@@ -20428,7 +20446,7 @@
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A404" s="8">
+      <c r="A404" s="3">
         <v>20979</v>
       </c>
       <c r="B404" s="3">
@@ -20466,7 +20484,7 @@
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A405" s="8">
+      <c r="A405" s="3">
         <v>20980</v>
       </c>
       <c r="B405" s="3">
@@ -20504,7 +20522,7 @@
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A406" s="8">
+      <c r="A406" s="3">
         <v>20980</v>
       </c>
       <c r="B406" s="3">
@@ -20542,7 +20560,7 @@
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A407" s="8">
+      <c r="A407" s="3">
         <v>20980</v>
       </c>
       <c r="B407" s="3">
@@ -20580,7 +20598,7 @@
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A408" s="8">
+      <c r="A408" s="3">
         <v>20980</v>
       </c>
       <c r="B408" s="3">
@@ -20618,7 +20636,7 @@
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A409" s="8">
+      <c r="A409" s="3">
         <v>20980</v>
       </c>
       <c r="B409" s="3">
@@ -20656,7 +20674,7 @@
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A410" s="8">
+      <c r="A410" s="3">
         <v>20980</v>
       </c>
       <c r="B410" s="3">
@@ -20694,7 +20712,7 @@
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A411" s="8">
+      <c r="A411" s="3">
         <v>20980</v>
       </c>
       <c r="B411" s="3">
@@ -20732,7 +20750,7 @@
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A412" s="8">
+      <c r="A412" s="3">
         <v>20980</v>
       </c>
       <c r="B412" s="3">
@@ -20770,7 +20788,7 @@
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A413" s="8">
+      <c r="A413" s="3">
         <v>20980</v>
       </c>
       <c r="B413" s="3">
@@ -20808,7 +20826,7 @@
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A414" s="8">
+      <c r="A414" s="3">
         <v>22223</v>
       </c>
       <c r="B414" s="3">
@@ -20846,7 +20864,7 @@
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A415" s="8">
+      <c r="A415" s="3">
         <v>22223</v>
       </c>
       <c r="B415" s="3">
@@ -20884,7 +20902,7 @@
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A416" s="8">
+      <c r="A416" s="3">
         <v>22223</v>
       </c>
       <c r="B416" s="3">
@@ -20922,7 +20940,7 @@
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A417" s="8">
+      <c r="A417" s="3">
         <v>22223</v>
       </c>
       <c r="B417" s="3">
@@ -20960,7 +20978,7 @@
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A418" s="8">
+      <c r="A418" s="3">
         <v>22223</v>
       </c>
       <c r="B418" s="3">
@@ -20998,7 +21016,7 @@
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A419" s="8">
+      <c r="A419" s="3">
         <v>22223</v>
       </c>
       <c r="B419" s="3">
@@ -21036,7 +21054,7 @@
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A420" s="8">
+      <c r="A420" s="3">
         <v>22224</v>
       </c>
       <c r="B420" s="3">
@@ -21074,7 +21092,7 @@
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A421" s="8">
+      <c r="A421" s="3">
         <v>22224</v>
       </c>
       <c r="B421" s="3">
@@ -21112,7 +21130,7 @@
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A422" s="8">
+      <c r="A422" s="3">
         <v>22224</v>
       </c>
       <c r="B422" s="3">
@@ -21150,7 +21168,7 @@
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A423" s="8">
+      <c r="A423" s="3">
         <v>22224</v>
       </c>
       <c r="B423" s="3">
@@ -21188,7 +21206,7 @@
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A424" s="8">
+      <c r="A424" s="3">
         <v>22224</v>
       </c>
       <c r="B424" s="3">
@@ -21226,7 +21244,7 @@
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A425" s="8">
+      <c r="A425" s="3">
         <v>22224</v>
       </c>
       <c r="B425" s="3">
@@ -21264,7 +21282,7 @@
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A426" s="8">
+      <c r="A426" s="3">
         <v>22225</v>
       </c>
       <c r="B426" s="3">
@@ -21302,7 +21320,7 @@
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A427" s="8">
+      <c r="A427" s="3">
         <v>22225</v>
       </c>
       <c r="B427" s="3">
@@ -21340,7 +21358,7 @@
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A428" s="8">
+      <c r="A428" s="3">
         <v>22225</v>
       </c>
       <c r="B428" s="3">
@@ -21378,7 +21396,7 @@
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A429" s="8">
+      <c r="A429" s="3">
         <v>22225</v>
       </c>
       <c r="B429" s="3">
@@ -21416,7 +21434,7 @@
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A430" s="8">
+      <c r="A430" s="3">
         <v>22225</v>
       </c>
       <c r="B430" s="3">
@@ -21454,7 +21472,7 @@
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A431" s="8">
+      <c r="A431" s="3">
         <v>22225</v>
       </c>
       <c r="B431" s="3">
@@ -21492,7 +21510,7 @@
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A432" s="8">
+      <c r="A432" s="3">
         <v>22225</v>
       </c>
       <c r="B432" s="3">
@@ -21530,7 +21548,7 @@
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A433" s="8">
+      <c r="A433" s="3">
         <v>22226</v>
       </c>
       <c r="B433" s="3">
@@ -21568,7 +21586,7 @@
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A434" s="8">
+      <c r="A434" s="3">
         <v>22226</v>
       </c>
       <c r="B434" s="3">
@@ -21606,7 +21624,7 @@
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A435" s="8">
+      <c r="A435" s="3">
         <v>22226</v>
       </c>
       <c r="B435" s="3">
@@ -21644,7 +21662,7 @@
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A436" s="8">
+      <c r="A436" s="3">
         <v>22226</v>
       </c>
       <c r="B436" s="3">
@@ -21682,7 +21700,7 @@
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A437" s="8">
+      <c r="A437" s="3">
         <v>22226</v>
       </c>
       <c r="B437" s="3">
@@ -21720,7 +21738,7 @@
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A438" s="8">
+      <c r="A438" s="3">
         <v>22226</v>
       </c>
       <c r="B438" s="3">
@@ -21758,7 +21776,7 @@
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A439" s="8">
+      <c r="A439" s="3">
         <v>22226</v>
       </c>
       <c r="B439" s="3">
@@ -21796,7 +21814,7 @@
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A440" s="8">
+      <c r="A440" s="3">
         <v>22227</v>
       </c>
       <c r="B440" s="3">
@@ -21834,7 +21852,7 @@
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A441" s="8">
+      <c r="A441" s="3">
         <v>22227</v>
       </c>
       <c r="B441" s="3">
@@ -21872,7 +21890,7 @@
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A442" s="8">
+      <c r="A442" s="3">
         <v>22227</v>
       </c>
       <c r="B442" s="3">
@@ -21910,7 +21928,7 @@
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A443" s="8">
+      <c r="A443" s="3">
         <v>22227</v>
       </c>
       <c r="B443" s="3">
@@ -21948,7 +21966,7 @@
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A444" s="8">
+      <c r="A444" s="3">
         <v>22227</v>
       </c>
       <c r="B444" s="3">
@@ -21986,7 +22004,7 @@
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A445" s="8">
+      <c r="A445" s="3">
         <v>22227</v>
       </c>
       <c r="B445" s="3">
@@ -22024,7 +22042,7 @@
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A446" s="8">
+      <c r="A446" s="3">
         <v>22227</v>
       </c>
       <c r="B446" s="3">
@@ -22062,7 +22080,7 @@
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A447" s="8">
+      <c r="A447" s="3">
         <v>22228</v>
       </c>
       <c r="B447" s="3">
@@ -22100,7 +22118,7 @@
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A448" s="8">
+      <c r="A448" s="3">
         <v>22228</v>
       </c>
       <c r="B448" s="3">
@@ -22138,7 +22156,7 @@
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A449" s="8">
+      <c r="A449" s="3">
         <v>22228</v>
       </c>
       <c r="B449" s="3">
@@ -22176,7 +22194,7 @@
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A450" s="8">
+      <c r="A450" s="3">
         <v>22228</v>
       </c>
       <c r="B450" s="3">
@@ -22214,7 +22232,7 @@
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A451" s="8">
+      <c r="A451" s="3">
         <v>22228</v>
       </c>
       <c r="B451" s="3">
@@ -22252,7 +22270,7 @@
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A452" s="8">
+      <c r="A452" s="3">
         <v>22228</v>
       </c>
       <c r="B452" s="3">
@@ -22290,7 +22308,7 @@
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A453" s="8">
+      <c r="A453" s="3">
         <v>22228</v>
       </c>
       <c r="B453" s="3">
@@ -22328,7 +22346,7 @@
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A454" s="8">
+      <c r="A454" s="3">
         <v>22229</v>
       </c>
       <c r="B454" s="3">
@@ -22366,7 +22384,7 @@
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A455" s="8">
+      <c r="A455" s="3">
         <v>22229</v>
       </c>
       <c r="B455" s="3">
@@ -22404,7 +22422,7 @@
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A456" s="8">
+      <c r="A456" s="3">
         <v>22229</v>
       </c>
       <c r="B456" s="3">
@@ -22442,7 +22460,7 @@
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A457" s="8">
+      <c r="A457" s="3">
         <v>22229</v>
       </c>
       <c r="B457" s="3">
@@ -22480,7 +22498,7 @@
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A458" s="8">
+      <c r="A458" s="3">
         <v>22229</v>
       </c>
       <c r="B458" s="3">
@@ -22518,7 +22536,7 @@
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A459" s="8">
+      <c r="A459" s="3">
         <v>22229</v>
       </c>
       <c r="B459" s="3">
@@ -22556,7 +22574,7 @@
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A460" s="8">
+      <c r="A460" s="3">
         <v>22229</v>
       </c>
       <c r="B460" s="3">
@@ -22594,7 +22612,7 @@
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A461" s="8">
+      <c r="A461" s="3">
         <v>22229</v>
       </c>
       <c r="B461" s="3">
@@ -22632,7 +22650,7 @@
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A462" s="8">
+      <c r="A462" s="3">
         <v>22229</v>
       </c>
       <c r="B462" s="3">
@@ -22670,7 +22688,7 @@
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A463" s="8">
+      <c r="A463" s="3">
         <v>22230</v>
       </c>
       <c r="B463" s="3">
@@ -22708,7 +22726,7 @@
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A464" s="8">
+      <c r="A464" s="3">
         <v>22230</v>
       </c>
       <c r="B464" s="3">
@@ -22746,7 +22764,7 @@
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A465" s="8">
+      <c r="A465" s="3">
         <v>22230</v>
       </c>
       <c r="B465" s="3">
@@ -22784,7 +22802,7 @@
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A466" s="8">
+      <c r="A466" s="3">
         <v>22230</v>
       </c>
       <c r="B466" s="3">
@@ -22822,7 +22840,7 @@
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A467" s="8">
+      <c r="A467" s="3">
         <v>22230</v>
       </c>
       <c r="B467" s="3">
@@ -22860,7 +22878,7 @@
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A468" s="8">
+      <c r="A468" s="3">
         <v>22230</v>
       </c>
       <c r="B468" s="3">
@@ -22898,7 +22916,7 @@
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A469" s="8">
+      <c r="A469" s="3">
         <v>22230</v>
       </c>
       <c r="B469" s="3">
@@ -22936,7 +22954,7 @@
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A470" s="8">
+      <c r="A470" s="3">
         <v>22230</v>
       </c>
       <c r="B470" s="3">
@@ -22974,7 +22992,7 @@
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A471" s="8">
+      <c r="A471" s="3">
         <v>22230</v>
       </c>
       <c r="B471" s="3">
@@ -23012,7 +23030,7 @@
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A472" s="8">
+      <c r="A472" s="3">
         <v>22231</v>
       </c>
       <c r="B472" s="3">
@@ -23050,7 +23068,7 @@
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A473" s="8">
+      <c r="A473" s="3">
         <v>22231</v>
       </c>
       <c r="B473" s="3">
@@ -23088,7 +23106,7 @@
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A474" s="8">
+      <c r="A474" s="3">
         <v>22231</v>
       </c>
       <c r="B474" s="3">
@@ -23126,7 +23144,7 @@
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A475" s="8">
+      <c r="A475" s="3">
         <v>22231</v>
       </c>
       <c r="B475" s="3">
@@ -23164,7 +23182,7 @@
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A476" s="8">
+      <c r="A476" s="3">
         <v>22231</v>
       </c>
       <c r="B476" s="3">
@@ -23202,7 +23220,7 @@
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A477" s="8">
+      <c r="A477" s="3">
         <v>22231</v>
       </c>
       <c r="B477" s="3">
@@ -23240,7 +23258,7 @@
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A478" s="8">
+      <c r="A478" s="3">
         <v>22231</v>
       </c>
       <c r="B478" s="3">
@@ -23278,7 +23296,7 @@
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A479" s="8">
+      <c r="A479" s="3">
         <v>22231</v>
       </c>
       <c r="B479" s="3">
@@ -23316,7 +23334,7 @@
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A480" s="8">
+      <c r="A480" s="3">
         <v>22232</v>
       </c>
       <c r="B480" s="3">
@@ -23354,7 +23372,7 @@
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A481" s="8">
+      <c r="A481" s="3">
         <v>22232</v>
       </c>
       <c r="B481" s="3">
@@ -23392,7 +23410,7 @@
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A482" s="8">
+      <c r="A482" s="3">
         <v>22232</v>
       </c>
       <c r="B482" s="3">
@@ -23430,7 +23448,7 @@
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A483" s="8">
+      <c r="A483" s="3">
         <v>22232</v>
       </c>
       <c r="B483" s="3">
@@ -23468,7 +23486,7 @@
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A484" s="8">
+      <c r="A484" s="3">
         <v>22232</v>
       </c>
       <c r="B484" s="3">
@@ -23506,7 +23524,7 @@
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A485" s="8">
+      <c r="A485" s="3">
         <v>22232</v>
       </c>
       <c r="B485" s="3">
@@ -23544,7 +23562,7 @@
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A486" s="8">
+      <c r="A486" s="3">
         <v>22232</v>
       </c>
       <c r="B486" s="3">
@@ -23582,7 +23600,7 @@
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A487" s="8">
+      <c r="A487" s="3">
         <v>22232</v>
       </c>
       <c r="B487" s="3">
@@ -23620,7 +23638,7 @@
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A488" s="8">
+      <c r="A488" s="3">
         <v>22233</v>
       </c>
       <c r="B488" s="3">
@@ -23658,7 +23676,7 @@
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A489" s="8">
+      <c r="A489" s="3">
         <v>22233</v>
       </c>
       <c r="B489" s="3">
@@ -23696,7 +23714,7 @@
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A490" s="8">
+      <c r="A490" s="3">
         <v>22233</v>
       </c>
       <c r="B490" s="3">
@@ -23734,7 +23752,7 @@
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A491" s="8">
+      <c r="A491" s="3">
         <v>22233</v>
       </c>
       <c r="B491" s="3">
@@ -23772,7 +23790,7 @@
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A492" s="8">
+      <c r="A492" s="3">
         <v>22233</v>
       </c>
       <c r="B492" s="3">
@@ -23810,7 +23828,7 @@
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A493" s="8">
+      <c r="A493" s="3">
         <v>22233</v>
       </c>
       <c r="B493" s="3">
@@ -23848,7 +23866,7 @@
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A494" s="8">
+      <c r="A494" s="3">
         <v>22233</v>
       </c>
       <c r="B494" s="3">
@@ -23886,7 +23904,7 @@
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A495" s="8">
+      <c r="A495" s="3">
         <v>22233</v>
       </c>
       <c r="B495" s="3">
@@ -23924,7 +23942,7 @@
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A496" s="8">
+      <c r="A496" s="3">
         <v>22234</v>
       </c>
       <c r="B496" s="3">
@@ -23962,7 +23980,7 @@
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A497" s="8">
+      <c r="A497" s="3">
         <v>22234</v>
       </c>
       <c r="B497" s="3">
@@ -24000,7 +24018,7 @@
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A498" s="8">
+      <c r="A498" s="3">
         <v>22234</v>
       </c>
       <c r="B498" s="3">
@@ -24038,7 +24056,7 @@
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A499" s="8">
+      <c r="A499" s="3">
         <v>22234</v>
       </c>
       <c r="B499" s="3">
@@ -24076,7 +24094,7 @@
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A500" s="8">
+      <c r="A500" s="3">
         <v>22234</v>
       </c>
       <c r="B500" s="3">
@@ -24114,7 +24132,7 @@
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A501" s="8">
+      <c r="A501" s="3">
         <v>22234</v>
       </c>
       <c r="B501" s="3">
@@ -24152,7 +24170,7 @@
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A502" s="8">
+      <c r="A502" s="3">
         <v>22234</v>
       </c>
       <c r="B502" s="3">
@@ -24190,7 +24208,7 @@
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A503" s="8">
+      <c r="A503" s="3">
         <v>22234</v>
       </c>
       <c r="B503" s="3">
@@ -24228,7 +24246,7 @@
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A504" s="8">
+      <c r="A504" s="3">
         <v>22301</v>
       </c>
       <c r="B504" s="3">
@@ -24266,7 +24284,7 @@
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A505" s="8">
+      <c r="A505" s="3">
         <v>22301</v>
       </c>
       <c r="B505" s="3">
@@ -24304,7 +24322,7 @@
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A506" s="8">
+      <c r="A506" s="3">
         <v>22301</v>
       </c>
       <c r="B506" s="3">
@@ -24342,7 +24360,7 @@
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A507" s="8">
+      <c r="A507" s="3">
         <v>22301</v>
       </c>
       <c r="B507" s="3">
@@ -24380,7 +24398,7 @@
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A508" s="8">
+      <c r="A508" s="3">
         <v>22301</v>
       </c>
       <c r="B508" s="3">
@@ -24418,7 +24436,7 @@
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A509" s="8">
+      <c r="A509" s="3">
         <v>22302</v>
       </c>
       <c r="B509" s="3">
@@ -24456,7 +24474,7 @@
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A510" s="8">
+      <c r="A510" s="3">
         <v>22302</v>
       </c>
       <c r="B510" s="3">
@@ -24494,7 +24512,7 @@
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A511" s="8">
+      <c r="A511" s="3">
         <v>22302</v>
       </c>
       <c r="B511" s="3">
@@ -24532,7 +24550,7 @@
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A512" s="8">
+      <c r="A512" s="3">
         <v>22302</v>
       </c>
       <c r="B512" s="3">
@@ -24570,7 +24588,7 @@
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A513" s="8">
+      <c r="A513" s="3">
         <v>22302</v>
       </c>
       <c r="B513" s="3">
@@ -24608,7 +24626,7 @@
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A514" s="8">
+      <c r="A514" s="3">
         <v>22345</v>
       </c>
       <c r="B514" s="3">
@@ -24646,7 +24664,7 @@
       </c>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A515" s="8">
+      <c r="A515" s="3">
         <v>22345</v>
       </c>
       <c r="B515" s="3">
@@ -24684,7 +24702,7 @@
       </c>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A516" s="8">
+      <c r="A516" s="3">
         <v>22345</v>
       </c>
       <c r="B516" s="3">
@@ -24722,7 +24740,7 @@
       </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A517" s="8">
+      <c r="A517" s="3">
         <v>22345</v>
       </c>
       <c r="B517" s="3">
@@ -24760,7 +24778,7 @@
       </c>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A518" s="8">
+      <c r="A518" s="3">
         <v>22345</v>
       </c>
       <c r="B518" s="3">
@@ -24798,7 +24816,7 @@
       </c>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A519" s="8">
+      <c r="A519" s="3">
         <v>22345</v>
       </c>
       <c r="B519" s="3">
@@ -24836,7 +24854,7 @@
       </c>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A520" s="8">
+      <c r="A520" s="3">
         <v>22345</v>
       </c>
       <c r="B520" s="3">
@@ -24874,7 +24892,7 @@
       </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A521" s="8">
+      <c r="A521" s="3">
         <v>22346</v>
       </c>
       <c r="B521" s="3">
@@ -24912,7 +24930,7 @@
       </c>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A522" s="8">
+      <c r="A522" s="3">
         <v>22346</v>
       </c>
       <c r="B522" s="3">
@@ -24950,7 +24968,7 @@
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A523" s="8">
+      <c r="A523" s="3">
         <v>22346</v>
       </c>
       <c r="B523" s="3">
@@ -24988,7 +25006,7 @@
       </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A524" s="8">
+      <c r="A524" s="3">
         <v>22346</v>
       </c>
       <c r="B524" s="3">
@@ -25026,7 +25044,7 @@
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A525" s="8">
+      <c r="A525" s="3">
         <v>22346</v>
       </c>
       <c r="B525" s="3">
@@ -25064,7 +25082,7 @@
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A526" s="8">
+      <c r="A526" s="3">
         <v>22346</v>
       </c>
       <c r="B526" s="3">
@@ -25102,7 +25120,7 @@
       </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A527" s="8">
+      <c r="A527" s="3">
         <v>22346</v>
       </c>
       <c r="B527" s="3">
@@ -25140,7 +25158,7 @@
       </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A528" s="8">
+      <c r="A528" s="3">
         <v>22347</v>
       </c>
       <c r="B528" s="3">
@@ -25178,7 +25196,7 @@
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A529" s="8">
+      <c r="A529" s="3">
         <v>22347</v>
       </c>
       <c r="B529" s="3">
@@ -25216,7 +25234,7 @@
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A530" s="8">
+      <c r="A530" s="3">
         <v>22347</v>
       </c>
       <c r="B530" s="3">
@@ -25254,7 +25272,7 @@
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A531" s="8">
+      <c r="A531" s="3">
         <v>22347</v>
       </c>
       <c r="B531" s="3">
@@ -25292,7 +25310,7 @@
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A532" s="8">
+      <c r="A532" s="3">
         <v>22347</v>
       </c>
       <c r="B532" s="3">
@@ -25330,7 +25348,7 @@
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A533" s="8">
+      <c r="A533" s="3">
         <v>22347</v>
       </c>
       <c r="B533" s="3">
@@ -25368,7 +25386,7 @@
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A534" s="8">
+      <c r="A534" s="3">
         <v>22347</v>
       </c>
       <c r="B534" s="3">
@@ -25406,7 +25424,7 @@
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A535" s="8">
+      <c r="A535" s="3">
         <v>22347</v>
       </c>
       <c r="B535" s="3">
@@ -25444,7 +25462,7 @@
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A536" s="8">
+      <c r="A536" s="3">
         <v>22347</v>
       </c>
       <c r="B536" s="3">
@@ -25482,7 +25500,7 @@
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A537" s="8">
+      <c r="A537" s="3">
         <v>22347</v>
       </c>
       <c r="B537" s="3">
@@ -25520,7 +25538,7 @@
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A538" s="8">
+      <c r="A538" s="3">
         <v>22350</v>
       </c>
       <c r="B538" s="3">
@@ -25558,7 +25576,7 @@
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A539" s="8">
+      <c r="A539" s="3">
         <v>22350</v>
       </c>
       <c r="B539" s="3">
@@ -25596,7 +25614,7 @@
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A540" s="8">
+      <c r="A540" s="3">
         <v>22350</v>
       </c>
       <c r="B540" s="3">
@@ -25634,7 +25652,7 @@
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A541" s="8">
+      <c r="A541" s="3">
         <v>22350</v>
       </c>
       <c r="B541" s="3">
@@ -25672,7 +25690,7 @@
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A542" s="8">
+      <c r="A542" s="3">
         <v>22350</v>
       </c>
       <c r="B542" s="3">
@@ -25710,7 +25728,7 @@
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A543" s="8">
+      <c r="A543" s="3">
         <v>22350</v>
       </c>
       <c r="B543" s="3">
@@ -25748,7 +25766,7 @@
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A544" s="8">
+      <c r="A544" s="3">
         <v>22350</v>
       </c>
       <c r="B544" s="3">
@@ -25786,7 +25804,7 @@
       </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A545" s="8">
+      <c r="A545" s="3">
         <v>22350</v>
       </c>
       <c r="B545" s="3">
@@ -25824,7 +25842,7 @@
       </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A546" s="8">
+      <c r="A546" s="3">
         <v>22415</v>
       </c>
       <c r="B546" s="3">
@@ -25862,7 +25880,7 @@
       </c>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A547" s="8">
+      <c r="A547" s="3">
         <v>22415</v>
       </c>
       <c r="B547" s="3">
@@ -25900,7 +25918,7 @@
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A548" s="8">
+      <c r="A548" s="3">
         <v>22415</v>
       </c>
       <c r="B548" s="3">
@@ -25938,7 +25956,7 @@
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A549" s="8">
+      <c r="A549" s="3">
         <v>22415</v>
       </c>
       <c r="B549" s="3">
@@ -25976,7 +25994,7 @@
       </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A550" s="8">
+      <c r="A550" s="3">
         <v>22416</v>
       </c>
       <c r="B550" s="3">
@@ -26014,7 +26032,7 @@
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A551" s="8">
+      <c r="A551" s="3">
         <v>22416</v>
       </c>
       <c r="B551" s="3">
@@ -26052,7 +26070,7 @@
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A552" s="8">
+      <c r="A552" s="3">
         <v>22416</v>
       </c>
       <c r="B552" s="3">
@@ -26090,7 +26108,7 @@
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A553" s="8">
+      <c r="A553" s="3">
         <v>22416</v>
       </c>
       <c r="B553" s="3">
@@ -26128,7 +26146,7 @@
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A554" s="8">
+      <c r="A554" s="3">
         <v>22425</v>
       </c>
       <c r="B554" s="3">
@@ -26166,7 +26184,7 @@
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A555" s="8">
+      <c r="A555" s="3">
         <v>22425</v>
       </c>
       <c r="B555" s="3">
@@ -26204,7 +26222,7 @@
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A556" s="8">
+      <c r="A556" s="3">
         <v>22425</v>
       </c>
       <c r="B556" s="3">
@@ -26242,7 +26260,7 @@
       </c>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A557" s="8">
+      <c r="A557" s="3">
         <v>22425</v>
       </c>
       <c r="B557" s="3">
@@ -26280,7 +26298,7 @@
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A558" s="8">
+      <c r="A558" s="3">
         <v>22425</v>
       </c>
       <c r="B558" s="3">
@@ -26318,7 +26336,7 @@
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A559" s="8">
+      <c r="A559" s="3">
         <v>22425</v>
       </c>
       <c r="B559" s="3">
@@ -26356,7 +26374,7 @@
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A560" s="8">
+      <c r="A560" s="3">
         <v>22426</v>
       </c>
       <c r="B560" s="3">
@@ -26394,7 +26412,7 @@
       </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A561" s="8">
+      <c r="A561" s="3">
         <v>22426</v>
       </c>
       <c r="B561" s="3">
@@ -26432,7 +26450,7 @@
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A562" s="8">
+      <c r="A562" s="3">
         <v>22426</v>
       </c>
       <c r="B562" s="3">
@@ -26470,7 +26488,7 @@
       </c>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A563" s="8">
+      <c r="A563" s="3">
         <v>22426</v>
       </c>
       <c r="B563" s="3">
@@ -26508,7 +26526,7 @@
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A564" s="8">
+      <c r="A564" s="3">
         <v>22426</v>
       </c>
       <c r="B564" s="3">
@@ -26546,7 +26564,7 @@
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A565" s="8">
+      <c r="A565" s="3">
         <v>22426</v>
       </c>
       <c r="B565" s="3">
@@ -26584,7 +26602,7 @@
       </c>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A566" s="8">
+      <c r="A566" s="3">
         <v>22435</v>
       </c>
       <c r="B566" s="3">
@@ -26622,7 +26640,7 @@
       </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A567" s="8">
+      <c r="A567" s="3">
         <v>22435</v>
       </c>
       <c r="B567" s="3">
@@ -26660,7 +26678,7 @@
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A568" s="8">
+      <c r="A568" s="3">
         <v>22435</v>
       </c>
       <c r="B568" s="3">
@@ -26698,7 +26716,7 @@
       </c>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A569" s="8">
+      <c r="A569" s="3">
         <v>22435</v>
       </c>
       <c r="B569" s="3">
@@ -26736,7 +26754,7 @@
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A570" s="8">
+      <c r="A570" s="3">
         <v>22436</v>
       </c>
       <c r="B570" s="3">
@@ -26774,7 +26792,7 @@
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A571" s="8">
+      <c r="A571" s="3">
         <v>22436</v>
       </c>
       <c r="B571" s="3">
@@ -26812,7 +26830,7 @@
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A572" s="8">
+      <c r="A572" s="3">
         <v>22436</v>
       </c>
       <c r="B572" s="3">
@@ -26850,7 +26868,7 @@
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A573" s="8">
+      <c r="A573" s="3">
         <v>22436</v>
       </c>
       <c r="B573" s="3">
@@ -26888,7 +26906,7 @@
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A574" s="8">
+      <c r="A574" s="3">
         <v>22439</v>
       </c>
       <c r="B574" s="3">
@@ -26926,7 +26944,7 @@
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A575" s="8">
+      <c r="A575" s="3">
         <v>22439</v>
       </c>
       <c r="B575" s="3">
@@ -26964,7 +26982,7 @@
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A576" s="8">
+      <c r="A576" s="3">
         <v>22439</v>
       </c>
       <c r="B576" s="3">
@@ -27002,7 +27020,7 @@
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A577" s="8">
+      <c r="A577" s="3">
         <v>22439</v>
       </c>
       <c r="B577" s="3">
@@ -27040,7 +27058,7 @@
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A578" s="8">
+      <c r="A578" s="3">
         <v>22439</v>
       </c>
       <c r="B578" s="3">
@@ -27078,7 +27096,7 @@
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A579" s="8">
+      <c r="A579" s="3">
         <v>22439</v>
       </c>
       <c r="B579" s="3">
@@ -27116,7 +27134,7 @@
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A580" s="8">
+      <c r="A580" s="3">
         <v>22440</v>
       </c>
       <c r="B580" s="3">
@@ -27154,7 +27172,7 @@
       </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A581" s="8">
+      <c r="A581" s="3">
         <v>22440</v>
       </c>
       <c r="B581" s="3">
@@ -27192,7 +27210,7 @@
       </c>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A582" s="8">
+      <c r="A582" s="3">
         <v>22440</v>
       </c>
       <c r="B582" s="3">
@@ -27230,7 +27248,7 @@
       </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A583" s="8">
+      <c r="A583" s="3">
         <v>22440</v>
       </c>
       <c r="B583" s="3">
@@ -27268,7 +27286,7 @@
       </c>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A584" s="8">
+      <c r="A584" s="3">
         <v>22440</v>
       </c>
       <c r="B584" s="3">
@@ -27306,7 +27324,7 @@
       </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A585" s="8">
+      <c r="A585" s="3">
         <v>22440</v>
       </c>
       <c r="B585" s="3">
@@ -27344,7 +27362,7 @@
       </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A586" s="8">
+      <c r="A586" s="3">
         <v>22447</v>
       </c>
       <c r="B586" s="3">
@@ -27382,7 +27400,7 @@
       </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A587" s="8">
+      <c r="A587" s="3">
         <v>22447</v>
       </c>
       <c r="B587" s="3">
@@ -27420,7 +27438,7 @@
       </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A588" s="8">
+      <c r="A588" s="3">
         <v>22447</v>
       </c>
       <c r="B588" s="3">
@@ -27458,7 +27476,7 @@
       </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A589" s="8">
+      <c r="A589" s="3">
         <v>22447</v>
       </c>
       <c r="B589" s="3">
@@ -27496,7 +27514,7 @@
       </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A590" s="8">
+      <c r="A590" s="3">
         <v>22447</v>
       </c>
       <c r="B590" s="3">
@@ -27534,7 +27552,7 @@
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A591" s="8">
+      <c r="A591" s="3">
         <v>22447</v>
       </c>
       <c r="B591" s="3">
@@ -27572,7 +27590,7 @@
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A592" s="8">
+      <c r="A592" s="3">
         <v>22448</v>
       </c>
       <c r="B592" s="3">
@@ -27610,7 +27628,7 @@
       </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A593" s="8">
+      <c r="A593" s="3">
         <v>22448</v>
       </c>
       <c r="B593" s="3">
@@ -27648,7 +27666,7 @@
       </c>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A594" s="8">
+      <c r="A594" s="3">
         <v>22448</v>
       </c>
       <c r="B594" s="3">
@@ -27686,7 +27704,7 @@
       </c>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A595" s="8">
+      <c r="A595" s="3">
         <v>22448</v>
       </c>
       <c r="B595" s="3">
@@ -27724,7 +27742,7 @@
       </c>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A596" s="8">
+      <c r="A596" s="3">
         <v>22448</v>
       </c>
       <c r="B596" s="3">
@@ -27762,7 +27780,7 @@
       </c>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A597" s="8">
+      <c r="A597" s="3">
         <v>22448</v>
       </c>
       <c r="B597" s="3">
@@ -27800,7 +27818,7 @@
       </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A598" s="8">
+      <c r="A598" s="3">
         <v>22457</v>
       </c>
       <c r="B598" s="3">
@@ -27838,7 +27856,7 @@
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A599" s="8">
+      <c r="A599" s="3">
         <v>22457</v>
       </c>
       <c r="B599" s="3">
@@ -27876,7 +27894,7 @@
       </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A600" s="8">
+      <c r="A600" s="3">
         <v>22457</v>
       </c>
       <c r="B600" s="3">
@@ -27914,7 +27932,7 @@
       </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A601" s="8">
+      <c r="A601" s="3">
         <v>22457</v>
       </c>
       <c r="B601" s="3">
@@ -27952,7 +27970,7 @@
       </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A602" s="8">
+      <c r="A602" s="3">
         <v>22457</v>
       </c>
       <c r="B602" s="3">
@@ -27990,7 +28008,7 @@
       </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A603" s="8">
+      <c r="A603" s="3">
         <v>22457</v>
       </c>
       <c r="B603" s="3">
@@ -28028,7 +28046,7 @@
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A604" s="8">
+      <c r="A604" s="3">
         <v>22457</v>
       </c>
       <c r="B604" s="3">
@@ -28066,7 +28084,7 @@
       </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A605" s="8">
+      <c r="A605" s="3">
         <v>22457</v>
       </c>
       <c r="B605" s="3">
@@ -28104,7 +28122,7 @@
       </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A606" s="8">
+      <c r="A606" s="3">
         <v>22458</v>
       </c>
       <c r="B606" s="3">
@@ -28142,7 +28160,7 @@
       </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A607" s="8">
+      <c r="A607" s="3">
         <v>22458</v>
       </c>
       <c r="B607" s="3">
@@ -28180,7 +28198,7 @@
       </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A608" s="8">
+      <c r="A608" s="3">
         <v>22458</v>
       </c>
       <c r="B608" s="3">
@@ -28218,7 +28236,7 @@
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A609" s="8">
+      <c r="A609" s="3">
         <v>22458</v>
       </c>
       <c r="B609" s="3">
@@ -28256,7 +28274,7 @@
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A610" s="8">
+      <c r="A610" s="3">
         <v>22458</v>
       </c>
       <c r="B610" s="3">
@@ -28294,7 +28312,7 @@
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A611" s="8">
+      <c r="A611" s="3">
         <v>22458</v>
       </c>
       <c r="B611" s="3">
@@ -28332,7 +28350,7 @@
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A612" s="8">
+      <c r="A612" s="3">
         <v>22458</v>
       </c>
       <c r="B612" s="3">
@@ -28370,7 +28388,7 @@
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A613" s="8">
+      <c r="A613" s="3">
         <v>22458</v>
       </c>
       <c r="B613" s="3">
@@ -28408,7 +28426,7 @@
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A614" s="8">
+      <c r="A614" s="3">
         <v>22469</v>
       </c>
       <c r="B614" s="3">
@@ -28446,7 +28464,7 @@
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A615" s="8">
+      <c r="A615" s="3">
         <v>22469</v>
       </c>
       <c r="B615" s="3">
@@ -28484,7 +28502,7 @@
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A616" s="8">
+      <c r="A616" s="3">
         <v>22469</v>
       </c>
       <c r="B616" s="3">
@@ -28522,7 +28540,7 @@
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A617" s="8">
+      <c r="A617" s="3">
         <v>22469</v>
       </c>
       <c r="B617" s="3">
@@ -28560,7 +28578,7 @@
       </c>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A618" s="8">
+      <c r="A618" s="3">
         <v>22469</v>
       </c>
       <c r="B618" s="3">
@@ -28598,7 +28616,7 @@
       </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A619" s="8">
+      <c r="A619" s="3">
         <v>22469</v>
       </c>
       <c r="B619" s="3">
@@ -28636,7 +28654,7 @@
       </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A620" s="8">
+      <c r="A620" s="3">
         <v>22469</v>
       </c>
       <c r="B620" s="3">
@@ -28674,7 +28692,7 @@
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A621" s="8">
+      <c r="A621" s="3">
         <v>22469</v>
       </c>
       <c r="B621" s="3">
@@ -28712,7 +28730,7 @@
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A622" s="8">
+      <c r="A622" s="3">
         <v>22469</v>
       </c>
       <c r="B622" s="3">
@@ -28750,7 +28768,7 @@
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A623" s="8">
+      <c r="A623" s="3">
         <v>22470</v>
       </c>
       <c r="B623" s="3">
@@ -28788,7 +28806,7 @@
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A624" s="8">
+      <c r="A624" s="3">
         <v>22470</v>
       </c>
       <c r="B624" s="3">
@@ -28826,7 +28844,7 @@
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A625" s="8">
+      <c r="A625" s="3">
         <v>22470</v>
       </c>
       <c r="B625" s="3">
@@ -28864,7 +28882,7 @@
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A626" s="8">
+      <c r="A626" s="3">
         <v>22470</v>
       </c>
       <c r="B626" s="3">
@@ -28902,7 +28920,7 @@
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A627" s="8">
+      <c r="A627" s="3">
         <v>22470</v>
       </c>
       <c r="B627" s="3">
@@ -28940,7 +28958,7 @@
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A628" s="8">
+      <c r="A628" s="3">
         <v>22470</v>
       </c>
       <c r="B628" s="3">
@@ -28978,7 +28996,7 @@
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A629" s="8">
+      <c r="A629" s="3">
         <v>22470</v>
       </c>
       <c r="B629" s="3">
@@ -29016,7 +29034,7 @@
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A630" s="8">
+      <c r="A630" s="3">
         <v>22470</v>
       </c>
       <c r="B630" s="3">
@@ -29054,7 +29072,7 @@
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A631" s="8">
+      <c r="A631" s="3">
         <v>22470</v>
       </c>
       <c r="B631" s="3">
@@ -29092,7 +29110,7 @@
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A632" s="8">
+      <c r="A632" s="3">
         <v>22477</v>
       </c>
       <c r="B632" s="3">
@@ -29130,7 +29148,7 @@
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A633" s="8">
+      <c r="A633" s="3">
         <v>22477</v>
       </c>
       <c r="B633" s="3">
@@ -29168,7 +29186,7 @@
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A634" s="8">
+      <c r="A634" s="3">
         <v>22477</v>
       </c>
       <c r="B634" s="3">
@@ -29206,7 +29224,7 @@
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A635" s="8">
+      <c r="A635" s="3">
         <v>22477</v>
       </c>
       <c r="B635" s="3">
@@ -29244,7 +29262,7 @@
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A636" s="8">
+      <c r="A636" s="3">
         <v>22477</v>
       </c>
       <c r="B636" s="3">
@@ -29282,7 +29300,7 @@
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A637" s="8">
+      <c r="A637" s="3">
         <v>22477</v>
       </c>
       <c r="B637" s="3">
@@ -29320,7 +29338,7 @@
       </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A638" s="8">
+      <c r="A638" s="3">
         <v>22477</v>
       </c>
       <c r="B638" s="3">
@@ -29358,7 +29376,7 @@
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A639" s="8">
+      <c r="A639" s="3">
         <v>22478</v>
       </c>
       <c r="B639" s="3">
@@ -29396,7 +29414,7 @@
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A640" s="8">
+      <c r="A640" s="3">
         <v>22478</v>
       </c>
       <c r="B640" s="3">
@@ -29434,7 +29452,7 @@
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A641" s="8">
+      <c r="A641" s="3">
         <v>22478</v>
       </c>
       <c r="B641" s="3">
@@ -29472,7 +29490,7 @@
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A642" s="8">
+      <c r="A642" s="3">
         <v>22478</v>
       </c>
       <c r="B642" s="3">
@@ -29510,7 +29528,7 @@
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A643" s="8">
+      <c r="A643" s="3">
         <v>22478</v>
       </c>
       <c r="B643" s="3">
@@ -29548,7 +29566,7 @@
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A644" s="8">
+      <c r="A644" s="3">
         <v>22478</v>
       </c>
       <c r="B644" s="3">
@@ -29586,7 +29604,7 @@
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A645" s="8">
+      <c r="A645" s="3">
         <v>22478</v>
       </c>
       <c r="B645" s="3">
@@ -29624,7 +29642,7 @@
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A646" s="8">
+      <c r="A646" s="3">
         <v>22487</v>
       </c>
       <c r="B646" s="3">
@@ -29662,7 +29680,7 @@
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A647" s="8">
+      <c r="A647" s="3">
         <v>22487</v>
       </c>
       <c r="B647" s="3">
@@ -29700,7 +29718,7 @@
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A648" s="8">
+      <c r="A648" s="3">
         <v>22487</v>
       </c>
       <c r="B648" s="3">
@@ -29738,7 +29756,7 @@
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A649" s="8">
+      <c r="A649" s="3">
         <v>22487</v>
       </c>
       <c r="B649" s="3">
@@ -29776,7 +29794,7 @@
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A650" s="8">
+      <c r="A650" s="3">
         <v>22487</v>
       </c>
       <c r="B650" s="3">
@@ -29814,7 +29832,7 @@
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A651" s="8">
+      <c r="A651" s="3">
         <v>22487</v>
       </c>
       <c r="B651" s="3">
@@ -29852,7 +29870,7 @@
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A652" s="8">
+      <c r="A652" s="3">
         <v>22487</v>
       </c>
       <c r="B652" s="3">
@@ -29890,7 +29908,7 @@
       </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A653" s="8">
+      <c r="A653" s="3">
         <v>22488</v>
       </c>
       <c r="B653" s="3">
@@ -29928,7 +29946,7 @@
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A654" s="8">
+      <c r="A654" s="3">
         <v>22488</v>
       </c>
       <c r="B654" s="3">
@@ -29966,7 +29984,7 @@
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A655" s="8">
+      <c r="A655" s="3">
         <v>22488</v>
       </c>
       <c r="B655" s="3">
@@ -30004,7 +30022,7 @@
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A656" s="8">
+      <c r="A656" s="3">
         <v>22488</v>
       </c>
       <c r="B656" s="3">
@@ -30042,7 +30060,7 @@
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A657" s="8">
+      <c r="A657" s="3">
         <v>22488</v>
       </c>
       <c r="B657" s="3">
@@ -30080,7 +30098,7 @@
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A658" s="8">
+      <c r="A658" s="3">
         <v>22488</v>
       </c>
       <c r="B658" s="3">
@@ -30118,7 +30136,7 @@
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A659" s="8">
+      <c r="A659" s="3">
         <v>22488</v>
       </c>
       <c r="B659" s="3">
@@ -30156,7 +30174,7 @@
       </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A660" s="8">
+      <c r="A660" s="3">
         <v>22545</v>
       </c>
       <c r="B660" s="3">
@@ -30194,7 +30212,7 @@
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A661" s="8">
+      <c r="A661" s="3">
         <v>22545</v>
       </c>
       <c r="B661" s="3">
@@ -30232,7 +30250,7 @@
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A662" s="8">
+      <c r="A662" s="3">
         <v>22545</v>
       </c>
       <c r="B662" s="3">
@@ -30270,7 +30288,7 @@
       </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A663" s="8">
+      <c r="A663" s="3">
         <v>22545</v>
       </c>
       <c r="B663" s="3">
@@ -30308,7 +30326,7 @@
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A664" s="8">
+      <c r="A664" s="3">
         <v>22545</v>
       </c>
       <c r="B664" s="3">
@@ -30346,7 +30364,7 @@
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A665" s="8">
+      <c r="A665" s="3">
         <v>22545</v>
       </c>
       <c r="B665" s="3">
@@ -30384,7 +30402,7 @@
       </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A666" s="8">
+      <c r="A666" s="3">
         <v>22546</v>
       </c>
       <c r="B666" s="3">
@@ -30422,7 +30440,7 @@
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A667" s="8">
+      <c r="A667" s="3">
         <v>22546</v>
       </c>
       <c r="B667" s="3">
@@ -30460,7 +30478,7 @@
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A668" s="8">
+      <c r="A668" s="3">
         <v>22546</v>
       </c>
       <c r="B668" s="3">
@@ -30498,7 +30516,7 @@
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A669" s="8">
+      <c r="A669" s="3">
         <v>22546</v>
       </c>
       <c r="B669" s="3">
@@ -30536,7 +30554,7 @@
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A670" s="8">
+      <c r="A670" s="3">
         <v>22546</v>
       </c>
       <c r="B670" s="3">
@@ -30574,7 +30592,7 @@
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A671" s="8">
+      <c r="A671" s="3">
         <v>22546</v>
       </c>
       <c r="B671" s="3">
@@ -30612,7 +30630,7 @@
       </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A672" s="8">
+      <c r="A672" s="3">
         <v>22549</v>
       </c>
       <c r="B672" s="3">
@@ -30650,7 +30668,7 @@
       </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A673" s="8">
+      <c r="A673" s="3">
         <v>22549</v>
       </c>
       <c r="B673" s="3">
@@ -30688,7 +30706,7 @@
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A674" s="8">
+      <c r="A674" s="3">
         <v>22549</v>
       </c>
       <c r="B674" s="3">
@@ -30726,7 +30744,7 @@
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A675" s="8">
+      <c r="A675" s="3">
         <v>22549</v>
       </c>
       <c r="B675" s="3">
@@ -30764,7 +30782,7 @@
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A676" s="8">
+      <c r="A676" s="3">
         <v>22549</v>
       </c>
       <c r="B676" s="3">
@@ -30802,7 +30820,7 @@
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A677" s="8">
+      <c r="A677" s="3">
         <v>22549</v>
       </c>
       <c r="B677" s="3">
@@ -30840,7 +30858,7 @@
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A678" s="8">
+      <c r="A678" s="3">
         <v>22550</v>
       </c>
       <c r="B678" s="3">
@@ -30878,7 +30896,7 @@
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A679" s="8">
+      <c r="A679" s="3">
         <v>22550</v>
       </c>
       <c r="B679" s="3">
@@ -30916,7 +30934,7 @@
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A680" s="8">
+      <c r="A680" s="3">
         <v>22550</v>
       </c>
       <c r="B680" s="3">
@@ -30954,7 +30972,7 @@
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A681" s="8">
+      <c r="A681" s="3">
         <v>22550</v>
       </c>
       <c r="B681" s="3">
@@ -30992,7 +31010,7 @@
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A682" s="8">
+      <c r="A682" s="3">
         <v>22550</v>
       </c>
       <c r="B682" s="3">
@@ -31030,7 +31048,7 @@
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A683" s="8">
+      <c r="A683" s="3">
         <v>22550</v>
       </c>
       <c r="B683" s="3">
@@ -31068,7 +31086,7 @@
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A684" s="8">
+      <c r="A684" s="3">
         <v>22895</v>
       </c>
       <c r="B684" s="3">
@@ -31106,7 +31124,7 @@
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A685" s="8">
+      <c r="A685" s="3">
         <v>22895</v>
       </c>
       <c r="B685" s="3">
@@ -31144,7 +31162,7 @@
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A686" s="8">
+      <c r="A686" s="3">
         <v>22895</v>
       </c>
       <c r="B686" s="3">
@@ -31182,7 +31200,7 @@
       </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A687" s="8">
+      <c r="A687" s="3">
         <v>22895</v>
       </c>
       <c r="B687" s="3">
@@ -31220,7 +31238,7 @@
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A688" s="8">
+      <c r="A688" s="3">
         <v>22895</v>
       </c>
       <c r="B688" s="3">
@@ -31258,7 +31276,7 @@
       </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A689" s="8">
+      <c r="A689" s="3">
         <v>22895</v>
       </c>
       <c r="B689" s="3">
@@ -31296,7 +31314,7 @@
       </c>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A690" s="8">
+      <c r="A690" s="3">
         <v>22895</v>
       </c>
       <c r="B690" s="3">
@@ -31334,7 +31352,7 @@
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A691" s="8">
+      <c r="A691" s="3">
         <v>22895</v>
       </c>
       <c r="B691" s="3">
@@ -31372,7 +31390,7 @@
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A692" s="8">
+      <c r="A692" s="3">
         <v>22895</v>
       </c>
       <c r="B692" s="3">
@@ -31410,7 +31428,7 @@
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A693" s="8">
+      <c r="A693" s="3">
         <v>22896</v>
       </c>
       <c r="B693" s="3">
@@ -31448,7 +31466,7 @@
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A694" s="8">
+      <c r="A694" s="3">
         <v>22896</v>
       </c>
       <c r="B694" s="3">
@@ -31486,7 +31504,7 @@
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A695" s="8">
+      <c r="A695" s="3">
         <v>22896</v>
       </c>
       <c r="B695" s="3">
@@ -31524,7 +31542,7 @@
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A696" s="8">
+      <c r="A696" s="3">
         <v>22896</v>
       </c>
       <c r="B696" s="3">
@@ -31562,7 +31580,7 @@
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A697" s="8">
+      <c r="A697" s="3">
         <v>22896</v>
       </c>
       <c r="B697" s="3">
@@ -31600,7 +31618,7 @@
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A698" s="8">
+      <c r="A698" s="3">
         <v>22896</v>
       </c>
       <c r="B698" s="3">
@@ -31638,7 +31656,7 @@
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A699" s="8">
+      <c r="A699" s="3">
         <v>22896</v>
       </c>
       <c r="B699" s="3">
@@ -31676,7 +31694,7 @@
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A700" s="8">
+      <c r="A700" s="3">
         <v>22896</v>
       </c>
       <c r="B700" s="3">
@@ -31714,7 +31732,7 @@
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A701" s="8">
+      <c r="A701" s="3">
         <v>22896</v>
       </c>
       <c r="B701" s="3">
@@ -31752,7 +31770,7 @@
       </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A702" s="8">
+      <c r="A702" s="3">
         <v>22925</v>
       </c>
       <c r="B702" s="3">
@@ -31790,7 +31808,7 @@
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A703" s="8">
+      <c r="A703" s="3">
         <v>22925</v>
       </c>
       <c r="B703" s="3">
@@ -31828,7 +31846,7 @@
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A704" s="8">
+      <c r="A704" s="3">
         <v>22925</v>
       </c>
       <c r="B704" s="3">
@@ -31866,7 +31884,7 @@
       </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A705" s="8">
+      <c r="A705" s="3">
         <v>22925</v>
       </c>
       <c r="B705" s="3">
@@ -31904,7 +31922,7 @@
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A706" s="8">
+      <c r="A706" s="3">
         <v>22925</v>
       </c>
       <c r="B706" s="3">
@@ -31942,7 +31960,7 @@
       </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A707" s="8">
+      <c r="A707" s="3">
         <v>22925</v>
       </c>
       <c r="B707" s="3">
@@ -31980,7 +31998,7 @@
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A708" s="8">
+      <c r="A708" s="3">
         <v>22925</v>
       </c>
       <c r="B708" s="3">
@@ -32018,7 +32036,7 @@
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A709" s="8">
+      <c r="A709" s="3">
         <v>22925</v>
       </c>
       <c r="B709" s="3">
@@ -32056,7 +32074,7 @@
       </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A710" s="8">
+      <c r="A710" s="3">
         <v>22925</v>
       </c>
       <c r="B710" s="3">
@@ -32094,7 +32112,7 @@
       </c>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A711" s="8">
+      <c r="A711" s="3">
         <v>22925</v>
       </c>
       <c r="B711" s="3">
@@ -32132,7 +32150,7 @@
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A712" s="8">
+      <c r="A712" s="3">
         <v>22926</v>
       </c>
       <c r="B712" s="3">
@@ -32170,7 +32188,7 @@
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A713" s="8">
+      <c r="A713" s="3">
         <v>22926</v>
       </c>
       <c r="B713" s="3">
@@ -32208,7 +32226,7 @@
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A714" s="8">
+      <c r="A714" s="3">
         <v>22926</v>
       </c>
       <c r="B714" s="3">
@@ -32246,7 +32264,7 @@
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A715" s="8">
+      <c r="A715" s="3">
         <v>22926</v>
       </c>
       <c r="B715" s="3">
@@ -32284,7 +32302,7 @@
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A716" s="8">
+      <c r="A716" s="3">
         <v>22926</v>
       </c>
       <c r="B716" s="3">
@@ -32322,7 +32340,7 @@
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A717" s="8">
+      <c r="A717" s="3">
         <v>22926</v>
       </c>
       <c r="B717" s="3">
@@ -32360,7 +32378,7 @@
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A718" s="8">
+      <c r="A718" s="3">
         <v>22926</v>
       </c>
       <c r="B718" s="3">
@@ -32398,7 +32416,7 @@
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A719" s="8">
+      <c r="A719" s="3">
         <v>22926</v>
       </c>
       <c r="B719" s="3">
@@ -32436,7 +32454,7 @@
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A720" s="8">
+      <c r="A720" s="3">
         <v>22926</v>
       </c>
       <c r="B720" s="3">
@@ -32474,7 +32492,7 @@
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A721" s="8">
+      <c r="A721" s="3">
         <v>22926</v>
       </c>
       <c r="B721" s="3">
@@ -32512,7 +32530,7 @@
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A722" s="8">
+      <c r="A722" s="3">
         <v>22961</v>
       </c>
       <c r="B722" s="3">
@@ -32550,7 +32568,7 @@
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A723" s="8">
+      <c r="A723" s="3">
         <v>22961</v>
       </c>
       <c r="B723" s="3">
@@ -32588,7 +32606,7 @@
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A724" s="8">
+      <c r="A724" s="3">
         <v>22961</v>
       </c>
       <c r="B724" s="3">
@@ -32626,7 +32644,7 @@
       </c>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A725" s="8">
+      <c r="A725" s="3">
         <v>22961</v>
       </c>
       <c r="B725" s="3">
@@ -32664,7 +32682,7 @@
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A726" s="8">
+      <c r="A726" s="3">
         <v>22961</v>
       </c>
       <c r="B726" s="3">
@@ -32702,7 +32720,7 @@
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A727" s="8">
+      <c r="A727" s="3">
         <v>22961</v>
       </c>
       <c r="B727" s="3">
@@ -32740,7 +32758,7 @@
       </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A728" s="8">
+      <c r="A728" s="3">
         <v>22962</v>
       </c>
       <c r="B728" s="3">
@@ -32778,7 +32796,7 @@
       </c>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A729" s="8">
+      <c r="A729" s="3">
         <v>22962</v>
       </c>
       <c r="B729" s="3">
@@ -32816,7 +32834,7 @@
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A730" s="8">
+      <c r="A730" s="3">
         <v>22962</v>
       </c>
       <c r="B730" s="3">
@@ -32854,7 +32872,7 @@
       </c>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A731" s="8">
+      <c r="A731" s="3">
         <v>22962</v>
       </c>
       <c r="B731" s="3">
@@ -32892,7 +32910,7 @@
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A732" s="8">
+      <c r="A732" s="3">
         <v>22962</v>
       </c>
       <c r="B732" s="3">
@@ -32930,7 +32948,7 @@
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A733" s="8">
+      <c r="A733" s="3">
         <v>22962</v>
       </c>
       <c r="B733" s="3">
@@ -32968,7 +32986,7 @@
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A734" s="8">
+      <c r="A734" s="3">
         <v>20826</v>
       </c>
       <c r="B734" s="3">
@@ -33006,7 +33024,7 @@
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A735" s="8">
+      <c r="A735" s="3">
         <v>20826</v>
       </c>
       <c r="B735" s="3">
@@ -33044,7 +33062,7 @@
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A736" s="8">
+      <c r="A736" s="3">
         <v>20826</v>
       </c>
       <c r="B736" s="3">
@@ -33082,7 +33100,7 @@
       </c>
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A737" s="8">
+      <c r="A737" s="3">
         <v>20826</v>
       </c>
       <c r="B737" s="3">
@@ -33120,7 +33138,7 @@
       </c>
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A738" s="8">
+      <c r="A738" s="3">
         <v>20826</v>
       </c>
       <c r="B738" s="3">
@@ -33158,7 +33176,7 @@
       </c>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A739" s="8">
+      <c r="A739" s="3">
         <v>20826</v>
       </c>
       <c r="B739" s="3">
@@ -33196,7 +33214,7 @@
       </c>
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A740" s="8">
+      <c r="A740" s="3">
         <v>20826</v>
       </c>
       <c r="B740" s="3">
@@ -33234,7 +33252,7 @@
       </c>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A741" s="8">
+      <c r="A741" s="3">
         <v>2252</v>
       </c>
       <c r="B741" s="3">
@@ -33272,7 +33290,7 @@
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A742" s="8">
+      <c r="A742" s="3">
         <v>2252</v>
       </c>
       <c r="B742" s="3">
@@ -33310,7 +33328,7 @@
       </c>
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A743" s="8">
+      <c r="A743" s="3">
         <v>2252</v>
       </c>
       <c r="B743" s="3">
@@ -33348,7 +33366,7 @@
       </c>
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A744" s="8">
+      <c r="A744" s="3">
         <v>2252</v>
       </c>
       <c r="B744" s="3">
@@ -33386,7 +33404,7 @@
       </c>
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A745" s="8">
+      <c r="A745" s="3">
         <v>2252</v>
       </c>
       <c r="B745" s="3">
@@ -33424,7 +33442,7 @@
       </c>
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A746" s="8">
+      <c r="A746" s="3">
         <v>22348</v>
       </c>
       <c r="B746" s="3">
@@ -33462,7 +33480,7 @@
       </c>
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A747" s="8">
+      <c r="A747" s="3">
         <v>22348</v>
       </c>
       <c r="B747" s="3">
@@ -33500,7 +33518,7 @@
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A748" s="8">
+      <c r="A748" s="3">
         <v>22348</v>
       </c>
       <c r="B748" s="3">
@@ -33538,7 +33556,7 @@
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A749" s="8">
+      <c r="A749" s="3">
         <v>22348</v>
       </c>
       <c r="B749" s="3">
@@ -33576,7 +33594,7 @@
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A750" s="8">
+      <c r="A750" s="3">
         <v>22348</v>
       </c>
       <c r="B750" s="3">
@@ -33614,7 +33632,7 @@
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A751" s="8">
+      <c r="A751" s="3">
         <v>22348</v>
       </c>
       <c r="B751" s="3">
@@ -33652,7 +33670,7 @@
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A752" s="8">
+      <c r="A752" s="3">
         <v>22348</v>
       </c>
       <c r="B752" s="3">
@@ -33690,7 +33708,7 @@
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A753" s="8">
+      <c r="A753" s="3">
         <v>22348</v>
       </c>
       <c r="B753" s="3">
@@ -33728,7 +33746,7 @@
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A754" s="8">
+      <c r="A754" s="3">
         <v>22348</v>
       </c>
       <c r="B754" s="3">
@@ -33766,7 +33784,7 @@
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A755" s="8">
+      <c r="A755" s="3">
         <v>22348</v>
       </c>
       <c r="B755" s="3">
@@ -33804,7 +33822,7 @@
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A756" s="8">
+      <c r="A756" s="3">
         <v>22349</v>
       </c>
       <c r="B756" s="3">
@@ -33842,7 +33860,7 @@
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A757" s="8">
+      <c r="A757" s="3">
         <v>22349</v>
       </c>
       <c r="B757" s="3">
@@ -33880,7 +33898,7 @@
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A758" s="8">
+      <c r="A758" s="3">
         <v>22349</v>
       </c>
       <c r="B758" s="3">
@@ -33918,7 +33936,7 @@
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A759" s="8">
+      <c r="A759" s="3">
         <v>22349</v>
       </c>
       <c r="B759" s="3">
@@ -33956,7 +33974,7 @@
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A760" s="8">
+      <c r="A760" s="3">
         <v>22349</v>
       </c>
       <c r="B760" s="3">
@@ -33994,7 +34012,7 @@
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A761" s="8">
+      <c r="A761" s="3">
         <v>22349</v>
       </c>
       <c r="B761" s="3">
@@ -34032,7 +34050,7 @@
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A762" s="8">
+      <c r="A762" s="3">
         <v>22349</v>
       </c>
       <c r="B762" s="3">
@@ -34070,7 +34088,7 @@
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A763" s="8">
+      <c r="A763" s="3">
         <v>22349</v>
       </c>
       <c r="B763" s="3">
@@ -34105,6 +34123,222 @@
       </c>
       <c r="L763" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A764" s="9">
+        <v>26401</v>
+      </c>
+      <c r="B764" s="10">
+        <v>1</v>
+      </c>
+      <c r="C764" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D764" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E764" t="s">
+        <v>15</v>
+      </c>
+      <c r="F764" s="12">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="H764">
+        <v>0</v>
+      </c>
+      <c r="I764" s="11">
+        <v>1</v>
+      </c>
+      <c r="J764" s="11">
+        <v>1</v>
+      </c>
+      <c r="K764" s="11">
+        <v>1</v>
+      </c>
+      <c r="L764" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A765" s="9">
+        <v>26401</v>
+      </c>
+      <c r="B765" s="10">
+        <v>2</v>
+      </c>
+      <c r="C765" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D765" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E765" s="12">
+        <v>0.41388888888888886</v>
+      </c>
+      <c r="F765" s="12">
+        <v>0.4152777777777778</v>
+      </c>
+      <c r="G765" t="s">
+        <v>31</v>
+      </c>
+      <c r="H765" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I765" s="11">
+        <v>1</v>
+      </c>
+      <c r="J765" s="11">
+        <v>1</v>
+      </c>
+      <c r="K765" s="11">
+        <v>1</v>
+      </c>
+      <c r="L765" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A766" s="9">
+        <v>26401</v>
+      </c>
+      <c r="B766" s="10">
+        <v>3</v>
+      </c>
+      <c r="C766" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E766" s="12">
+        <v>0.46388888888888891</v>
+      </c>
+      <c r="F766" t="s">
+        <v>41</v>
+      </c>
+      <c r="H766" t="s">
+        <v>830</v>
+      </c>
+      <c r="I766" s="11">
+        <v>1</v>
+      </c>
+      <c r="J766" s="11">
+        <v>1</v>
+      </c>
+      <c r="K766" s="11">
+        <v>1</v>
+      </c>
+      <c r="L766" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A767" s="9">
+        <v>26403</v>
+      </c>
+      <c r="B767" s="10">
+        <v>1</v>
+      </c>
+      <c r="C767" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D767" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E767" t="s">
+        <v>15</v>
+      </c>
+      <c r="F767" s="12">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="H767">
+        <v>0</v>
+      </c>
+      <c r="I767" s="11">
+        <v>1</v>
+      </c>
+      <c r="J767" s="11">
+        <v>1</v>
+      </c>
+      <c r="K767" s="11">
+        <v>1</v>
+      </c>
+      <c r="L767" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A768" s="9">
+        <v>26403</v>
+      </c>
+      <c r="B768" s="10">
+        <v>2</v>
+      </c>
+      <c r="C768" s="11" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D768" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E768" s="12">
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="F768" s="12">
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="G768" t="s">
+        <v>31</v>
+      </c>
+      <c r="H768" t="s">
+        <v>1555</v>
+      </c>
+      <c r="I768" s="11">
+        <v>1</v>
+      </c>
+      <c r="J768" s="11">
+        <v>1</v>
+      </c>
+      <c r="K768" s="11">
+        <v>1</v>
+      </c>
+      <c r="L768" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A769" s="9">
+        <v>26403</v>
+      </c>
+      <c r="B769" s="10">
+        <v>3</v>
+      </c>
+      <c r="C769" s="11" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E769" s="12">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="F769" t="s">
+        <v>41</v>
+      </c>
+      <c r="H769" t="s">
+        <v>830</v>
+      </c>
+      <c r="I769" s="11">
+        <v>1</v>
+      </c>
+      <c r="J769" s="11">
+        <v>1</v>
+      </c>
+      <c r="K769" s="11">
+        <v>1</v>
+      </c>
+      <c r="L769" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
